--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,7 +444,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="28" customWidth="1" min="2" max="2"/>
+    <col width="31" customWidth="1" min="2" max="2"/>
     <col width="25" customWidth="1" min="3" max="3"/>
     <col width="24" customWidth="1" min="4" max="4"/>
     <col width="26" customWidth="1" min="5" max="5"/>
@@ -563,7 +563,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>VIEJO RIVAS MAYRA ANABELLE</t>
+          <t>COELLO TRONCOSO JOSE GREGORIO</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -616,84 +616,144 @@
       </c>
     </row>
     <row r="3">
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>0 de 1</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>0 de 1</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>0 de 1</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>0 de 1</t>
-        </is>
-      </c>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t>0 de 1</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>0 de 1</t>
-        </is>
-      </c>
-      <c r="I3" s="3" t="inlineStr">
-        <is>
-          <t>0 de 1</t>
-        </is>
-      </c>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t>0 de 1</t>
-        </is>
-      </c>
-      <c r="K3" s="3" t="inlineStr">
-        <is>
-          <t>0 de 1</t>
-        </is>
-      </c>
-      <c r="L3" s="3" t="inlineStr">
-        <is>
-          <t>0 de 1</t>
-        </is>
-      </c>
-      <c r="M3" s="3" t="inlineStr">
-        <is>
-          <t>0 de 1</t>
-        </is>
-      </c>
-      <c r="N3" s="3" t="inlineStr">
-        <is>
-          <t>0 de 1</t>
-        </is>
-      </c>
-      <c r="O3" s="3" t="inlineStr">
-        <is>
-          <t>0 de 1</t>
-        </is>
-      </c>
-      <c r="P3" s="3" t="inlineStr">
-        <is>
-          <t>0 de 1</t>
-        </is>
-      </c>
-      <c r="Q3" s="3" t="inlineStr">
-        <is>
-          <t>0 de 1</t>
-        </is>
-      </c>
-      <c r="R3" s="3" t="inlineStr">
-        <is>
-          <t>0 de 1</t>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>VIEJO RIVAS MAYRA ANABELLE</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>0 de 2</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>0 de 2</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>0 de 2</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>0 de 2</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>0 de 2</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>0 de 2</t>
+        </is>
+      </c>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>0 de 2</t>
+        </is>
+      </c>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>0 de 2</t>
+        </is>
+      </c>
+      <c r="K4" s="3" t="inlineStr">
+        <is>
+          <t>0 de 2</t>
+        </is>
+      </c>
+      <c r="L4" s="3" t="inlineStr">
+        <is>
+          <t>0 de 2</t>
+        </is>
+      </c>
+      <c r="M4" s="3" t="inlineStr">
+        <is>
+          <t>0 de 2</t>
+        </is>
+      </c>
+      <c r="N4" s="3" t="inlineStr">
+        <is>
+          <t>0 de 2</t>
+        </is>
+      </c>
+      <c r="O4" s="3" t="inlineStr">
+        <is>
+          <t>0 de 2</t>
+        </is>
+      </c>
+      <c r="P4" s="3" t="inlineStr">
+        <is>
+          <t>0 de 2</t>
+        </is>
+      </c>
+      <c r="Q4" s="3" t="inlineStr">
+        <is>
+          <t>0 de 2</t>
+        </is>
+      </c>
+      <c r="R4" s="3" t="inlineStr">
+        <is>
+          <t>0 de 2</t>
         </is>
       </c>
     </row>
@@ -708,7 +768,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -717,7 +777,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="28" customWidth="1" min="2" max="2"/>
+    <col width="31" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
@@ -770,7 +830,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>VIEJO RIVAS MAYRA ANABELLE</t>
+          <t>COELLO TRONCOSO JOSE GREGORIO</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -790,19 +850,46 @@
       </c>
     </row>
     <row r="3">
-      <c r="C3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>VIEJO RIVAS MAYRA ANABELLE</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,7 +444,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="31" customWidth="1" min="2" max="2"/>
+    <col width="35" customWidth="1" min="2" max="2"/>
     <col width="25" customWidth="1" min="3" max="3"/>
     <col width="24" customWidth="1" min="4" max="4"/>
     <col width="26" customWidth="1" min="5" max="5"/>
@@ -623,7 +623,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>VIEJO RIVAS MAYRA ANABELLE</t>
+          <t>COMERCIAL LUNA PAZMIÑO CIA. LTDA.</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -676,84 +676,144 @@
       </c>
     </row>
     <row r="4">
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>0 de 2</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>0 de 2</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="inlineStr">
-        <is>
-          <t>0 de 2</t>
-        </is>
-      </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>0 de 2</t>
-        </is>
-      </c>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t>0 de 2</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="inlineStr">
-        <is>
-          <t>0 de 2</t>
-        </is>
-      </c>
-      <c r="I4" s="3" t="inlineStr">
-        <is>
-          <t>0 de 2</t>
-        </is>
-      </c>
-      <c r="J4" s="3" t="inlineStr">
-        <is>
-          <t>0 de 2</t>
-        </is>
-      </c>
-      <c r="K4" s="3" t="inlineStr">
-        <is>
-          <t>0 de 2</t>
-        </is>
-      </c>
-      <c r="L4" s="3" t="inlineStr">
-        <is>
-          <t>0 de 2</t>
-        </is>
-      </c>
-      <c r="M4" s="3" t="inlineStr">
-        <is>
-          <t>0 de 2</t>
-        </is>
-      </c>
-      <c r="N4" s="3" t="inlineStr">
-        <is>
-          <t>0 de 2</t>
-        </is>
-      </c>
-      <c r="O4" s="3" t="inlineStr">
-        <is>
-          <t>0 de 2</t>
-        </is>
-      </c>
-      <c r="P4" s="3" t="inlineStr">
-        <is>
-          <t>0 de 2</t>
-        </is>
-      </c>
-      <c r="Q4" s="3" t="inlineStr">
-        <is>
-          <t>0 de 2</t>
-        </is>
-      </c>
-      <c r="R4" s="3" t="inlineStr">
-        <is>
-          <t>0 de 2</t>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>VIEJO RIVAS MAYRA ANABELLE</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>0 de 3</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>0 de 3</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>0 de 3</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>0 de 3</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>0 de 3</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>0 de 3</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>0 de 3</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>0 de 3</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>0 de 3</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>0 de 3</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>0 de 3</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>0 de 3</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>0 de 3</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>0 de 3</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>0 de 3</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>0 de 3</t>
         </is>
       </c>
     </row>
@@ -768,7 +828,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -777,7 +837,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="31" customWidth="1" min="2" max="2"/>
+    <col width="35" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
@@ -857,7 +917,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>VIEJO RIVAS MAYRA ANABELLE</t>
+          <t>COMERCIAL LUNA PAZMIÑO CIA. LTDA.</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -877,19 +937,46 @@
       </c>
     </row>
     <row r="4">
-      <c r="C4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4" t="n">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>VIEJO RIVAS MAYRA ANABELLE</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,7 +563,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>COELLO TRONCOSO JOSE GREGORIO</t>
+          <t>ASES GAVILANEZ FAUSTO HERNAN</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -623,7 +623,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>COMERCIAL LUNA PAZMIÑO CIA. LTDA.</t>
+          <t>BRAVO MONTENEGRO DANIEL ANDRES</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -683,137 +683,317 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>COELLO TRONCOSO JOSE GREGORIO</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>COMERCIAL LUNA PAZMIÑO CIA. LTDA.</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>LATACELA ZUÑIGA JUAN FERNANDO</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>VIEJO RIVAS MAYRA ANABELLE</t>
         </is>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>0 de 3</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>0 de 3</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>0 de 3</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>0 de 3</t>
-        </is>
-      </c>
-      <c r="G5" s="3" t="inlineStr">
-        <is>
-          <t>0 de 3</t>
-        </is>
-      </c>
-      <c r="H5" s="3" t="inlineStr">
-        <is>
-          <t>0 de 3</t>
-        </is>
-      </c>
-      <c r="I5" s="3" t="inlineStr">
-        <is>
-          <t>0 de 3</t>
-        </is>
-      </c>
-      <c r="J5" s="3" t="inlineStr">
-        <is>
-          <t>0 de 3</t>
-        </is>
-      </c>
-      <c r="K5" s="3" t="inlineStr">
-        <is>
-          <t>0 de 3</t>
-        </is>
-      </c>
-      <c r="L5" s="3" t="inlineStr">
-        <is>
-          <t>0 de 3</t>
-        </is>
-      </c>
-      <c r="M5" s="3" t="inlineStr">
-        <is>
-          <t>0 de 3</t>
-        </is>
-      </c>
-      <c r="N5" s="3" t="inlineStr">
-        <is>
-          <t>0 de 3</t>
-        </is>
-      </c>
-      <c r="O5" s="3" t="inlineStr">
-        <is>
-          <t>0 de 3</t>
-        </is>
-      </c>
-      <c r="P5" s="3" t="inlineStr">
-        <is>
-          <t>0 de 3</t>
-        </is>
-      </c>
-      <c r="Q5" s="3" t="inlineStr">
-        <is>
-          <t>0 de 3</t>
-        </is>
-      </c>
-      <c r="R5" s="3" t="inlineStr">
-        <is>
-          <t>0 de 3</t>
+      <c r="C7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>0 de 6</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>0 de 6</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>0 de 6</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>0 de 6</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>0 de 6</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t>0 de 6</t>
+        </is>
+      </c>
+      <c r="I8" s="3" t="inlineStr">
+        <is>
+          <t>0 de 6</t>
+        </is>
+      </c>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>0 de 6</t>
+        </is>
+      </c>
+      <c r="K8" s="3" t="inlineStr">
+        <is>
+          <t>0 de 6</t>
+        </is>
+      </c>
+      <c r="L8" s="3" t="inlineStr">
+        <is>
+          <t>0 de 6</t>
+        </is>
+      </c>
+      <c r="M8" s="3" t="inlineStr">
+        <is>
+          <t>0 de 6</t>
+        </is>
+      </c>
+      <c r="N8" s="3" t="inlineStr">
+        <is>
+          <t>0 de 6</t>
+        </is>
+      </c>
+      <c r="O8" s="3" t="inlineStr">
+        <is>
+          <t>0 de 6</t>
+        </is>
+      </c>
+      <c r="P8" s="3" t="inlineStr">
+        <is>
+          <t>0 de 6</t>
+        </is>
+      </c>
+      <c r="Q8" s="3" t="inlineStr">
+        <is>
+          <t>0 de 6</t>
+        </is>
+      </c>
+      <c r="R8" s="3" t="inlineStr">
+        <is>
+          <t>0 de 6</t>
         </is>
       </c>
     </row>
@@ -828,7 +1008,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -838,7 +1018,7 @@
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
     <col width="35" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
@@ -890,7 +1070,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>COELLO TRONCOSO JOSE GREGORIO</t>
+          <t>ASES GAVILANEZ FAUSTO HERNAN</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -917,7 +1097,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>COMERCIAL LUNA PAZMIÑO CIA. LTDA.</t>
+          <t>BRAVO MONTENEGRO DANIEL ANDRES</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -944,40 +1124,121 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>COELLO TRONCOSO JOSE GREGORIO</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>COMERCIAL LUNA PAZMIÑO CIA. LTDA.</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>LATACELA ZUÑIGA JUAN FERNANDO</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>171.19</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>VIEJO RIVAS MAYRA ANABELLE</t>
         </is>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0</v>
+      <c r="C7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" s="4" t="n">
+        <v>171.19</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>1500</v>
       </c>
     </row>
   </sheetData>

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -803,7 +803,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LATACELA ZUÑIGA JUAN FERNANDO</t>
+          <t>VIEJO RIVAS MAYRA ANABELLE</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -856,144 +856,84 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>VIEJO RIVAS MAYRA ANABELLE</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>0 de 6</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>0 de 6</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="inlineStr">
-        <is>
-          <t>0 de 6</t>
-        </is>
-      </c>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>0 de 6</t>
-        </is>
-      </c>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>0 de 6</t>
-        </is>
-      </c>
-      <c r="H8" s="3" t="inlineStr">
-        <is>
-          <t>0 de 6</t>
-        </is>
-      </c>
-      <c r="I8" s="3" t="inlineStr">
-        <is>
-          <t>0 de 6</t>
-        </is>
-      </c>
-      <c r="J8" s="3" t="inlineStr">
-        <is>
-          <t>0 de 6</t>
-        </is>
-      </c>
-      <c r="K8" s="3" t="inlineStr">
-        <is>
-          <t>0 de 6</t>
-        </is>
-      </c>
-      <c r="L8" s="3" t="inlineStr">
-        <is>
-          <t>0 de 6</t>
-        </is>
-      </c>
-      <c r="M8" s="3" t="inlineStr">
-        <is>
-          <t>0 de 6</t>
-        </is>
-      </c>
-      <c r="N8" s="3" t="inlineStr">
-        <is>
-          <t>0 de 6</t>
-        </is>
-      </c>
-      <c r="O8" s="3" t="inlineStr">
-        <is>
-          <t>0 de 6</t>
-        </is>
-      </c>
-      <c r="P8" s="3" t="inlineStr">
-        <is>
-          <t>0 de 6</t>
-        </is>
-      </c>
-      <c r="Q8" s="3" t="inlineStr">
-        <is>
-          <t>0 de 6</t>
-        </is>
-      </c>
-      <c r="R8" s="3" t="inlineStr">
-        <is>
-          <t>0 de 6</t>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>0 de 5</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>0 de 5</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>0 de 5</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>0 de 5</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>0 de 5</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>0 de 5</t>
+        </is>
+      </c>
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>0 de 5</t>
+        </is>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>0 de 5</t>
+        </is>
+      </c>
+      <c r="K7" s="3" t="inlineStr">
+        <is>
+          <t>0 de 5</t>
+        </is>
+      </c>
+      <c r="L7" s="3" t="inlineStr">
+        <is>
+          <t>0 de 5</t>
+        </is>
+      </c>
+      <c r="M7" s="3" t="inlineStr">
+        <is>
+          <t>0 de 5</t>
+        </is>
+      </c>
+      <c r="N7" s="3" t="inlineStr">
+        <is>
+          <t>0 de 5</t>
+        </is>
+      </c>
+      <c r="O7" s="3" t="inlineStr">
+        <is>
+          <t>0 de 5</t>
+        </is>
+      </c>
+      <c r="P7" s="3" t="inlineStr">
+        <is>
+          <t>0 de 5</t>
+        </is>
+      </c>
+      <c r="Q7" s="3" t="inlineStr">
+        <is>
+          <t>0 de 5</t>
+        </is>
+      </c>
+      <c r="R7" s="3" t="inlineStr">
+        <is>
+          <t>0 de 5</t>
         </is>
       </c>
     </row>
@@ -1008,7 +948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1018,7 +958,7 @@
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
     <col width="35" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
@@ -1178,11 +1118,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LATACELA ZUÑIGA JUAN FERNANDO</t>
+          <t>VIEJO RIVAS MAYRA ANABELLE</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>171.19</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
@@ -1194,51 +1134,24 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>VIEJO RIVAS MAYRA ANABELLE</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" s="4" t="n">
-        <v>171.19</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1500</v>
+      <c r="C7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -803,137 +803,197 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>FRANK FERRETERIA FRANKFERRE CIA.</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>VIEJO RIVAS MAYRA ANABELLE</t>
         </is>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>0 de 5</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>0 de 5</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>0 de 5</t>
-        </is>
-      </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>0 de 5</t>
-        </is>
-      </c>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>0 de 5</t>
-        </is>
-      </c>
-      <c r="H7" s="3" t="inlineStr">
-        <is>
-          <t>0 de 5</t>
-        </is>
-      </c>
-      <c r="I7" s="3" t="inlineStr">
-        <is>
-          <t>0 de 5</t>
-        </is>
-      </c>
-      <c r="J7" s="3" t="inlineStr">
-        <is>
-          <t>0 de 5</t>
-        </is>
-      </c>
-      <c r="K7" s="3" t="inlineStr">
-        <is>
-          <t>0 de 5</t>
-        </is>
-      </c>
-      <c r="L7" s="3" t="inlineStr">
-        <is>
-          <t>0 de 5</t>
-        </is>
-      </c>
-      <c r="M7" s="3" t="inlineStr">
-        <is>
-          <t>0 de 5</t>
-        </is>
-      </c>
-      <c r="N7" s="3" t="inlineStr">
-        <is>
-          <t>0 de 5</t>
-        </is>
-      </c>
-      <c r="O7" s="3" t="inlineStr">
-        <is>
-          <t>0 de 5</t>
-        </is>
-      </c>
-      <c r="P7" s="3" t="inlineStr">
-        <is>
-          <t>0 de 5</t>
-        </is>
-      </c>
-      <c r="Q7" s="3" t="inlineStr">
-        <is>
-          <t>0 de 5</t>
-        </is>
-      </c>
-      <c r="R7" s="3" t="inlineStr">
-        <is>
-          <t>0 de 5</t>
+      <c r="C7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>0 de 6</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>0 de 6</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>0 de 6</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>0 de 6</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>0 de 6</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t>0 de 6</t>
+        </is>
+      </c>
+      <c r="I8" s="3" t="inlineStr">
+        <is>
+          <t>0 de 6</t>
+        </is>
+      </c>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>0 de 6</t>
+        </is>
+      </c>
+      <c r="K8" s="3" t="inlineStr">
+        <is>
+          <t>0 de 6</t>
+        </is>
+      </c>
+      <c r="L8" s="3" t="inlineStr">
+        <is>
+          <t>0 de 6</t>
+        </is>
+      </c>
+      <c r="M8" s="3" t="inlineStr">
+        <is>
+          <t>0 de 6</t>
+        </is>
+      </c>
+      <c r="N8" s="3" t="inlineStr">
+        <is>
+          <t>0 de 6</t>
+        </is>
+      </c>
+      <c r="O8" s="3" t="inlineStr">
+        <is>
+          <t>0 de 6</t>
+        </is>
+      </c>
+      <c r="P8" s="3" t="inlineStr">
+        <is>
+          <t>0 de 6</t>
+        </is>
+      </c>
+      <c r="Q8" s="3" t="inlineStr">
+        <is>
+          <t>0 de 6</t>
+        </is>
+      </c>
+      <c r="R8" s="3" t="inlineStr">
+        <is>
+          <t>0 de 6</t>
         </is>
       </c>
     </row>
@@ -948,7 +1008,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1118,39 +1178,66 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>FRANK FERRETERIA FRANKFERRE CIA.</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>VIEJO RIVAS MAYRA ANABELLE</t>
         </is>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4" t="n">
+      <c r="C7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -1018,10 +1018,10 @@
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
     <col width="35" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="11" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="16" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -1038,22 +1038,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>mayo</t>
+          <t>junio</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>junio</t>
+          <t>julio</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>julio</t>
+          <t>agosto</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>agosto</t>
+          <t>septiembre</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,7 +683,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>COELLO TRONCOSO JOSE GREGORIO</t>
+          <t>BRITO CARDENAS RUTH CECILIA</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -743,7 +743,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>COMERCIAL LUNA PAZMIÑO CIA. LTDA.</t>
+          <t>COELLO TRONCOSO JOSE GREGORIO</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -803,7 +803,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FRANK FERRETERIA FRANKFERRE CIA.</t>
+          <t>COMERCIAL LUNA PAZMIÑO CIA. LTDA.</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -863,137 +863,197 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>FRANK FERRETERIA FRANKFERRE CIA.</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>VIEJO RIVAS MAYRA ANABELLE</t>
         </is>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>0 de 6</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>0 de 6</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="inlineStr">
-        <is>
-          <t>0 de 6</t>
-        </is>
-      </c>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>0 de 6</t>
-        </is>
-      </c>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>0 de 6</t>
-        </is>
-      </c>
-      <c r="H8" s="3" t="inlineStr">
-        <is>
-          <t>0 de 6</t>
-        </is>
-      </c>
-      <c r="I8" s="3" t="inlineStr">
-        <is>
-          <t>0 de 6</t>
-        </is>
-      </c>
-      <c r="J8" s="3" t="inlineStr">
-        <is>
-          <t>0 de 6</t>
-        </is>
-      </c>
-      <c r="K8" s="3" t="inlineStr">
-        <is>
-          <t>0 de 6</t>
-        </is>
-      </c>
-      <c r="L8" s="3" t="inlineStr">
-        <is>
-          <t>0 de 6</t>
-        </is>
-      </c>
-      <c r="M8" s="3" t="inlineStr">
-        <is>
-          <t>0 de 6</t>
-        </is>
-      </c>
-      <c r="N8" s="3" t="inlineStr">
-        <is>
-          <t>0 de 6</t>
-        </is>
-      </c>
-      <c r="O8" s="3" t="inlineStr">
-        <is>
-          <t>0 de 6</t>
-        </is>
-      </c>
-      <c r="P8" s="3" t="inlineStr">
-        <is>
-          <t>0 de 6</t>
-        </is>
-      </c>
-      <c r="Q8" s="3" t="inlineStr">
-        <is>
-          <t>0 de 6</t>
-        </is>
-      </c>
-      <c r="R8" s="3" t="inlineStr">
-        <is>
-          <t>0 de 6</t>
+      <c r="C8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>0 de 7</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>0 de 7</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>0 de 7</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>0 de 7</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>0 de 7</t>
+        </is>
+      </c>
+      <c r="H9" s="3" t="inlineStr">
+        <is>
+          <t>0 de 7</t>
+        </is>
+      </c>
+      <c r="I9" s="3" t="inlineStr">
+        <is>
+          <t>0 de 7</t>
+        </is>
+      </c>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>0 de 7</t>
+        </is>
+      </c>
+      <c r="K9" s="3" t="inlineStr">
+        <is>
+          <t>0 de 7</t>
+        </is>
+      </c>
+      <c r="L9" s="3" t="inlineStr">
+        <is>
+          <t>0 de 7</t>
+        </is>
+      </c>
+      <c r="M9" s="3" t="inlineStr">
+        <is>
+          <t>0 de 7</t>
+        </is>
+      </c>
+      <c r="N9" s="3" t="inlineStr">
+        <is>
+          <t>0 de 7</t>
+        </is>
+      </c>
+      <c r="O9" s="3" t="inlineStr">
+        <is>
+          <t>0 de 7</t>
+        </is>
+      </c>
+      <c r="P9" s="3" t="inlineStr">
+        <is>
+          <t>0 de 7</t>
+        </is>
+      </c>
+      <c r="Q9" s="3" t="inlineStr">
+        <is>
+          <t>0 de 7</t>
+        </is>
+      </c>
+      <c r="R9" s="3" t="inlineStr">
+        <is>
+          <t>0 de 7</t>
         </is>
       </c>
     </row>
@@ -1008,7 +1068,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1124,7 +1184,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>COELLO TRONCOSO JOSE GREGORIO</t>
+          <t>BRITO CARDENAS RUTH CECILIA</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -1151,7 +1211,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>COMERCIAL LUNA PAZMIÑO CIA. LTDA.</t>
+          <t>COELLO TRONCOSO JOSE GREGORIO</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -1178,7 +1238,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FRANK FERRETERIA FRANKFERRE CIA.</t>
+          <t>COMERCIAL LUNA PAZMIÑO CIA. LTDA.</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -1205,39 +1265,66 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>FRANK FERRETERIA FRANKFERRE CIA.</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>VIEJO RIVAS MAYRA ANABELLE</t>
         </is>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4" t="n">
+      <c r="C8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,7 +444,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="35" customWidth="1" min="2" max="2"/>
+    <col width="36" customWidth="1" min="2" max="2"/>
     <col width="25" customWidth="1" min="3" max="3"/>
     <col width="24" customWidth="1" min="4" max="4"/>
     <col width="26" customWidth="1" min="5" max="5"/>
@@ -863,7 +863,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FRANK FERRETERIA FRANKFERRE CIA.</t>
+          <t>CORPORACION AREVALO-YUMBLA E HIJOS</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -923,137 +923,197 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>FRANK FERRETERIA FRANKFERRE CIA.</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>VIEJO RIVAS MAYRA ANABELLE</t>
         </is>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>0 de 7</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>0 de 7</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t>0 de 7</t>
-        </is>
-      </c>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>0 de 7</t>
-        </is>
-      </c>
-      <c r="G9" s="3" t="inlineStr">
-        <is>
-          <t>0 de 7</t>
-        </is>
-      </c>
-      <c r="H9" s="3" t="inlineStr">
-        <is>
-          <t>0 de 7</t>
-        </is>
-      </c>
-      <c r="I9" s="3" t="inlineStr">
-        <is>
-          <t>0 de 7</t>
-        </is>
-      </c>
-      <c r="J9" s="3" t="inlineStr">
-        <is>
-          <t>0 de 7</t>
-        </is>
-      </c>
-      <c r="K9" s="3" t="inlineStr">
-        <is>
-          <t>0 de 7</t>
-        </is>
-      </c>
-      <c r="L9" s="3" t="inlineStr">
-        <is>
-          <t>0 de 7</t>
-        </is>
-      </c>
-      <c r="M9" s="3" t="inlineStr">
-        <is>
-          <t>0 de 7</t>
-        </is>
-      </c>
-      <c r="N9" s="3" t="inlineStr">
-        <is>
-          <t>0 de 7</t>
-        </is>
-      </c>
-      <c r="O9" s="3" t="inlineStr">
-        <is>
-          <t>0 de 7</t>
-        </is>
-      </c>
-      <c r="P9" s="3" t="inlineStr">
-        <is>
-          <t>0 de 7</t>
-        </is>
-      </c>
-      <c r="Q9" s="3" t="inlineStr">
-        <is>
-          <t>0 de 7</t>
-        </is>
-      </c>
-      <c r="R9" s="3" t="inlineStr">
-        <is>
-          <t>0 de 7</t>
+      <c r="C9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>0 de 8</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>0 de 8</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>0 de 8</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>0 de 8</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>0 de 8</t>
+        </is>
+      </c>
+      <c r="H10" s="3" t="inlineStr">
+        <is>
+          <t>0 de 8</t>
+        </is>
+      </c>
+      <c r="I10" s="3" t="inlineStr">
+        <is>
+          <t>0 de 8</t>
+        </is>
+      </c>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t>0 de 8</t>
+        </is>
+      </c>
+      <c r="K10" s="3" t="inlineStr">
+        <is>
+          <t>0 de 8</t>
+        </is>
+      </c>
+      <c r="L10" s="3" t="inlineStr">
+        <is>
+          <t>0 de 8</t>
+        </is>
+      </c>
+      <c r="M10" s="3" t="inlineStr">
+        <is>
+          <t>0 de 8</t>
+        </is>
+      </c>
+      <c r="N10" s="3" t="inlineStr">
+        <is>
+          <t>0 de 8</t>
+        </is>
+      </c>
+      <c r="O10" s="3" t="inlineStr">
+        <is>
+          <t>0 de 8</t>
+        </is>
+      </c>
+      <c r="P10" s="3" t="inlineStr">
+        <is>
+          <t>0 de 8</t>
+        </is>
+      </c>
+      <c r="Q10" s="3" t="inlineStr">
+        <is>
+          <t>0 de 8</t>
+        </is>
+      </c>
+      <c r="R10" s="3" t="inlineStr">
+        <is>
+          <t>0 de 8</t>
         </is>
       </c>
     </row>
@@ -1068,7 +1128,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1077,7 +1137,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="35" customWidth="1" min="2" max="2"/>
+    <col width="36" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
@@ -1265,7 +1325,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FRANK FERRETERIA FRANKFERRE CIA.</t>
+          <t>CORPORACION AREVALO-YUMBLA E HIJOS</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -1292,39 +1352,66 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>FRANK FERRETERIA FRANKFERRE CIA.</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>VIEJO RIVAS MAYRA ANABELLE</t>
         </is>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="C9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4" t="n">
+      <c r="C9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>0</v>
+        <v>54.26</v>
       </c>
       <c r="N4" s="2" t="n">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="Q4" s="2" t="n">
         <v>0</v>
@@ -1088,22 +1088,22 @@
       </c>
       <c r="M10" s="3" t="inlineStr">
         <is>
+          <t>1 de 8</t>
+        </is>
+      </c>
+      <c r="N10" s="3" t="inlineStr">
+        <is>
           <t>0 de 8</t>
         </is>
       </c>
-      <c r="N10" s="3" t="inlineStr">
+      <c r="O10" s="3" t="inlineStr">
         <is>
           <t>0 de 8</t>
         </is>
       </c>
-      <c r="O10" s="3" t="inlineStr">
-        <is>
-          <t>0 de 8</t>
-        </is>
-      </c>
       <c r="P10" s="3" t="inlineStr">
         <is>
-          <t>0 de 8</t>
+          <t>1 de 8</t>
         </is>
       </c>
       <c r="Q10" s="3" t="inlineStr">
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>0</v>
+        <v>56.38</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>0</v>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>0</v>
+        <v>56.38</v>
       </c>
       <c r="G10" s="4" t="n">
         <v>0</v>

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3">
@@ -1412,7 +1412,7 @@
         <v>56.38</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>0</v>
+        <v>5372.02</v>
       </c>
       <c r="N8" s="2" t="n">
         <v>0</v>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="M10" s="3" t="inlineStr">
         <is>
-          <t>1 de 8</t>
+          <t>2 de 8</t>
         </is>
       </c>
       <c r="N10" s="3" t="inlineStr">
@@ -1365,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>0</v>
+        <v>5372.02</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>0</v>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>56.38</v>
+        <v>5428.400000000001</v>
       </c>
       <c r="G10" s="4" t="n">
         <v>200</v>

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>54.26</v>
+        <v>0</v>
       </c>
       <c r="N4" s="2" t="n">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="2" t="n">
         <v>0</v>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="M10" s="3" t="inlineStr">
         <is>
-          <t>2 de 8</t>
+          <t>1 de 8</t>
         </is>
       </c>
       <c r="N10" s="3" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="P10" s="3" t="inlineStr">
         <is>
-          <t>1 de 8</t>
+          <t>0 de 8</t>
         </is>
       </c>
       <c r="Q10" s="3" t="inlineStr">
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>56.38</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>0</v>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>5428.400000000001</v>
+        <v>5372.02</v>
       </c>
       <c r="G10" s="4" t="n">
         <v>200</v>

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>0</v>
+        <v>43.1</v>
       </c>
       <c r="N3" s="2" t="n">
         <v>0</v>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="M10" s="3" t="inlineStr">
         <is>
-          <t>1 de 8</t>
+          <t>2 de 8</t>
         </is>
       </c>
       <c r="N10" s="3" t="inlineStr">
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>0</v>
+        <v>43.1</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>0</v>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>5372.02</v>
+        <v>5415.120000000001</v>
       </c>
       <c r="G10" s="4" t="n">
         <v>200</v>

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -923,7 +923,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FRANK FERRETERIA FRANKFERRE CIA.</t>
+          <t>FABIMP BENIGNO BRAVO S.A.S.</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>5372.02</v>
+        <v>0</v>
       </c>
       <c r="N8" s="2" t="n">
         <v>0</v>
@@ -983,137 +983,197 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>FRANK FERRETERIA FRANKFERRE CIA.</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>5372.02</v>
+      </c>
+      <c r="N9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>VIEJO RIVAS MAYRA ANABELLE</t>
         </is>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>0 de 8</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>0 de 8</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="inlineStr">
-        <is>
-          <t>0 de 8</t>
-        </is>
-      </c>
-      <c r="F10" s="3" t="inlineStr">
-        <is>
-          <t>0 de 8</t>
-        </is>
-      </c>
-      <c r="G10" s="3" t="inlineStr">
-        <is>
-          <t>0 de 8</t>
-        </is>
-      </c>
-      <c r="H10" s="3" t="inlineStr">
-        <is>
-          <t>0 de 8</t>
-        </is>
-      </c>
-      <c r="I10" s="3" t="inlineStr">
-        <is>
-          <t>0 de 8</t>
-        </is>
-      </c>
-      <c r="J10" s="3" t="inlineStr">
-        <is>
-          <t>0 de 8</t>
-        </is>
-      </c>
-      <c r="K10" s="3" t="inlineStr">
-        <is>
-          <t>0 de 8</t>
-        </is>
-      </c>
-      <c r="L10" s="3" t="inlineStr">
-        <is>
-          <t>0 de 8</t>
-        </is>
-      </c>
-      <c r="M10" s="3" t="inlineStr">
-        <is>
-          <t>2 de 8</t>
-        </is>
-      </c>
-      <c r="N10" s="3" t="inlineStr">
-        <is>
-          <t>0 de 8</t>
-        </is>
-      </c>
-      <c r="O10" s="3" t="inlineStr">
-        <is>
-          <t>0 de 8</t>
-        </is>
-      </c>
-      <c r="P10" s="3" t="inlineStr">
-        <is>
-          <t>0 de 8</t>
-        </is>
-      </c>
-      <c r="Q10" s="3" t="inlineStr">
-        <is>
-          <t>0 de 8</t>
-        </is>
-      </c>
-      <c r="R10" s="3" t="inlineStr">
-        <is>
-          <t>0 de 8</t>
+      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>0 de 9</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>0 de 9</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>0 de 9</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>0 de 9</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>0 de 9</t>
+        </is>
+      </c>
+      <c r="H11" s="3" t="inlineStr">
+        <is>
+          <t>0 de 9</t>
+        </is>
+      </c>
+      <c r="I11" s="3" t="inlineStr">
+        <is>
+          <t>0 de 9</t>
+        </is>
+      </c>
+      <c r="J11" s="3" t="inlineStr">
+        <is>
+          <t>0 de 9</t>
+        </is>
+      </c>
+      <c r="K11" s="3" t="inlineStr">
+        <is>
+          <t>0 de 9</t>
+        </is>
+      </c>
+      <c r="L11" s="3" t="inlineStr">
+        <is>
+          <t>0 de 9</t>
+        </is>
+      </c>
+      <c r="M11" s="3" t="inlineStr">
+        <is>
+          <t>2 de 9</t>
+        </is>
+      </c>
+      <c r="N11" s="3" t="inlineStr">
+        <is>
+          <t>0 de 9</t>
+        </is>
+      </c>
+      <c r="O11" s="3" t="inlineStr">
+        <is>
+          <t>0 de 9</t>
+        </is>
+      </c>
+      <c r="P11" s="3" t="inlineStr">
+        <is>
+          <t>0 de 9</t>
+        </is>
+      </c>
+      <c r="Q11" s="3" t="inlineStr">
+        <is>
+          <t>0 de 9</t>
+        </is>
+      </c>
+      <c r="R11" s="3" t="inlineStr">
+        <is>
+          <t>0 de 9</t>
         </is>
       </c>
     </row>
@@ -1128,7 +1188,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1138,7 +1198,7 @@
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
     <col width="36" customWidth="1" min="2" max="2"/>
-    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
     <col width="16" customWidth="1" min="6" max="6"/>
@@ -1352,11 +1412,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FRANK FERRETERIA FRANKFERRE CIA.</t>
+          <t>FABIMP BENIGNO BRAVO S.A.S.</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0</v>
+        <v>1187.62</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>0</v>
@@ -1365,10 +1425,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>5372.02</v>
+        <v>0</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1379,40 +1439,67 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>FRANK FERRETERIA FRANKFERRE CIA.</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>5372.02</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>VIEJO RIVAS MAYRA ANABELLE</t>
         </is>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="C10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4" t="n">
+      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" s="4" t="n">
+        <v>1187.62</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4" t="n">
         <v>5415.120000000001</v>
       </c>
-      <c r="G10" s="4" t="n">
-        <v>200</v>
+      <c r="G11" s="4" t="n">
+        <v>1200</v>
       </c>
     </row>
   </sheetData>

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1043,137 +1043,197 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>VIEJO RIVAS MAYRA ANABELLE</t>
         </is>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>0 de 9</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>0 de 9</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="inlineStr">
-        <is>
-          <t>0 de 9</t>
-        </is>
-      </c>
-      <c r="F11" s="3" t="inlineStr">
-        <is>
-          <t>0 de 9</t>
-        </is>
-      </c>
-      <c r="G11" s="3" t="inlineStr">
-        <is>
-          <t>0 de 9</t>
-        </is>
-      </c>
-      <c r="H11" s="3" t="inlineStr">
-        <is>
-          <t>0 de 9</t>
-        </is>
-      </c>
-      <c r="I11" s="3" t="inlineStr">
-        <is>
-          <t>0 de 9</t>
-        </is>
-      </c>
-      <c r="J11" s="3" t="inlineStr">
-        <is>
-          <t>0 de 9</t>
-        </is>
-      </c>
-      <c r="K11" s="3" t="inlineStr">
-        <is>
-          <t>0 de 9</t>
-        </is>
-      </c>
-      <c r="L11" s="3" t="inlineStr">
-        <is>
-          <t>0 de 9</t>
-        </is>
-      </c>
-      <c r="M11" s="3" t="inlineStr">
-        <is>
-          <t>2 de 9</t>
-        </is>
-      </c>
-      <c r="N11" s="3" t="inlineStr">
-        <is>
-          <t>0 de 9</t>
-        </is>
-      </c>
-      <c r="O11" s="3" t="inlineStr">
-        <is>
-          <t>0 de 9</t>
-        </is>
-      </c>
-      <c r="P11" s="3" t="inlineStr">
-        <is>
-          <t>0 de 9</t>
-        </is>
-      </c>
-      <c r="Q11" s="3" t="inlineStr">
-        <is>
-          <t>0 de 9</t>
-        </is>
-      </c>
-      <c r="R11" s="3" t="inlineStr">
-        <is>
-          <t>0 de 9</t>
+      <c r="C11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>0 de 10</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>0 de 10</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>0 de 10</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>0 de 10</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>0 de 10</t>
+        </is>
+      </c>
+      <c r="H12" s="3" t="inlineStr">
+        <is>
+          <t>0 de 10</t>
+        </is>
+      </c>
+      <c r="I12" s="3" t="inlineStr">
+        <is>
+          <t>0 de 10</t>
+        </is>
+      </c>
+      <c r="J12" s="3" t="inlineStr">
+        <is>
+          <t>0 de 10</t>
+        </is>
+      </c>
+      <c r="K12" s="3" t="inlineStr">
+        <is>
+          <t>0 de 10</t>
+        </is>
+      </c>
+      <c r="L12" s="3" t="inlineStr">
+        <is>
+          <t>0 de 10</t>
+        </is>
+      </c>
+      <c r="M12" s="3" t="inlineStr">
+        <is>
+          <t>2 de 10</t>
+        </is>
+      </c>
+      <c r="N12" s="3" t="inlineStr">
+        <is>
+          <t>0 de 10</t>
+        </is>
+      </c>
+      <c r="O12" s="3" t="inlineStr">
+        <is>
+          <t>0 de 10</t>
+        </is>
+      </c>
+      <c r="P12" s="3" t="inlineStr">
+        <is>
+          <t>0 de 10</t>
+        </is>
+      </c>
+      <c r="Q12" s="3" t="inlineStr">
+        <is>
+          <t>0 de 10</t>
+        </is>
+      </c>
+      <c r="R12" s="3" t="inlineStr">
+        <is>
+          <t>0 de 10</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1248,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1466,39 +1526,66 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>VIEJO RIVAS MAYRA ANABELLE</t>
         </is>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="4" t="n">
         <v>1187.62</v>
       </c>
-      <c r="D11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4" t="n">
+      <c r="D12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="n">
         <v>5415.120000000001</v>
       </c>
-      <c r="G11" s="4" t="n">
+      <c r="G12" s="4" t="n">
         <v>1200</v>
       </c>
     </row>

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>43.1</v>
+        <v>0</v>
       </c>
       <c r="N3" s="2" t="n">
         <v>0</v>
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>0</v>
+        <v>43.1</v>
       </c>
       <c r="N8" s="2" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>0</v>
+        <v>122.67</v>
       </c>
       <c r="N10" s="2" t="n">
         <v>0</v>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>0</v>
+        <v>13.81</v>
       </c>
       <c r="Q10" s="2" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="M12" s="3" t="inlineStr">
         <is>
-          <t>2 de 10</t>
+          <t>3 de 10</t>
         </is>
       </c>
       <c r="N12" s="3" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="P12" s="3" t="inlineStr">
         <is>
-          <t>0 de 10</t>
+          <t>1 de 10</t>
         </is>
       </c>
       <c r="Q12" s="3" t="inlineStr">
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>43.1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>0</v>
+        <v>43.1</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>1000</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>0</v>
+        <v>136.48</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>0</v>
@@ -1583,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="4" t="n">
-        <v>5415.120000000001</v>
+        <v>5551.6</v>
       </c>
       <c r="G12" s="4" t="n">
         <v>1200</v>

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,137 +1103,197 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>MOROCHO BACUILIMA HILDA INES</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>VIEJO RIVAS MAYRA ANABELLE</t>
         </is>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>0 de 10</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>0 de 10</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="inlineStr">
-        <is>
-          <t>0 de 10</t>
-        </is>
-      </c>
-      <c r="F12" s="3" t="inlineStr">
-        <is>
-          <t>0 de 10</t>
-        </is>
-      </c>
-      <c r="G12" s="3" t="inlineStr">
-        <is>
-          <t>0 de 10</t>
-        </is>
-      </c>
-      <c r="H12" s="3" t="inlineStr">
-        <is>
-          <t>0 de 10</t>
-        </is>
-      </c>
-      <c r="I12" s="3" t="inlineStr">
-        <is>
-          <t>0 de 10</t>
-        </is>
-      </c>
-      <c r="J12" s="3" t="inlineStr">
-        <is>
-          <t>0 de 10</t>
-        </is>
-      </c>
-      <c r="K12" s="3" t="inlineStr">
-        <is>
-          <t>0 de 10</t>
-        </is>
-      </c>
-      <c r="L12" s="3" t="inlineStr">
-        <is>
-          <t>0 de 10</t>
-        </is>
-      </c>
-      <c r="M12" s="3" t="inlineStr">
-        <is>
-          <t>3 de 10</t>
-        </is>
-      </c>
-      <c r="N12" s="3" t="inlineStr">
-        <is>
-          <t>0 de 10</t>
-        </is>
-      </c>
-      <c r="O12" s="3" t="inlineStr">
-        <is>
-          <t>0 de 10</t>
-        </is>
-      </c>
-      <c r="P12" s="3" t="inlineStr">
-        <is>
-          <t>1 de 10</t>
-        </is>
-      </c>
-      <c r="Q12" s="3" t="inlineStr">
-        <is>
-          <t>0 de 10</t>
-        </is>
-      </c>
-      <c r="R12" s="3" t="inlineStr">
-        <is>
-          <t>0 de 10</t>
+      <c r="C12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>0 de 11</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>0 de 11</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>0 de 11</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>0 de 11</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>0 de 11</t>
+        </is>
+      </c>
+      <c r="H13" s="3" t="inlineStr">
+        <is>
+          <t>0 de 11</t>
+        </is>
+      </c>
+      <c r="I13" s="3" t="inlineStr">
+        <is>
+          <t>0 de 11</t>
+        </is>
+      </c>
+      <c r="J13" s="3" t="inlineStr">
+        <is>
+          <t>0 de 11</t>
+        </is>
+      </c>
+      <c r="K13" s="3" t="inlineStr">
+        <is>
+          <t>0 de 11</t>
+        </is>
+      </c>
+      <c r="L13" s="3" t="inlineStr">
+        <is>
+          <t>0 de 11</t>
+        </is>
+      </c>
+      <c r="M13" s="3" t="inlineStr">
+        <is>
+          <t>3 de 11</t>
+        </is>
+      </c>
+      <c r="N13" s="3" t="inlineStr">
+        <is>
+          <t>0 de 11</t>
+        </is>
+      </c>
+      <c r="O13" s="3" t="inlineStr">
+        <is>
+          <t>0 de 11</t>
+        </is>
+      </c>
+      <c r="P13" s="3" t="inlineStr">
+        <is>
+          <t>1 de 11</t>
+        </is>
+      </c>
+      <c r="Q13" s="3" t="inlineStr">
+        <is>
+          <t>0 de 11</t>
+        </is>
+      </c>
+      <c r="R13" s="3" t="inlineStr">
+        <is>
+          <t>0 de 11</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1308,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1553,39 +1613,66 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>MOROCHO BACUILIMA HILDA INES</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>VIEJO RIVAS MAYRA ANABELLE</t>
         </is>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" s="4" t="n">
         <v>1187.62</v>
       </c>
-      <c r="D12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4" t="n">
+      <c r="D13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4" t="n">
         <v>5551.6</v>
       </c>
-      <c r="G12" s="4" t="n">
+      <c r="G13" s="4" t="n">
         <v>1200</v>
       </c>
     </row>

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,7 +623,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BRAVO MONTENEGRO DANIEL ANDRES</t>
+          <t>BARROS YUNGA DIEGO VINICIO</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -683,7 +683,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRITO CARDENAS RUTH CECILIA</t>
+          <t>BRAVO MONTENEGRO DANIEL ANDRES</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -743,7 +743,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>COELLO TRONCOSO JOSE GREGORIO</t>
+          <t>BRITO CARDENAS RUTH CECILIA</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -803,7 +803,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>COMERCIAL LUNA PAZMIÑO CIA. LTDA.</t>
+          <t>COELLO TRONCOSO JOSE GREGORIO</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -863,7 +863,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CORPORACION AREVALO-YUMBLA E HIJOS</t>
+          <t>COMERCIAL LUNA PAZMIÑO CIA. LTDA.</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -923,7 +923,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FABIMP BENIGNO BRAVO S.A.S.</t>
+          <t>CORPORACION AREVALO-YUMBLA E HIJOS</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>43.1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="2" t="n">
         <v>0</v>
@@ -983,7 +983,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FRANK FERRETERIA FRANKFERRE CIA.</t>
+          <t>FABIMP BENIGNO BRAVO S.A.S.</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>5372.02</v>
+        <v>43.1</v>
       </c>
       <c r="N9" s="2" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+          <t>FRANK FERRETERIA FRANKFERRE CIA.</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>122.67</v>
+        <v>5372.02</v>
       </c>
       <c r="N10" s="2" t="n">
         <v>0</v>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>13.81</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MOROCHO BACUILIMA HILDA INES</t>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -1137,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>0</v>
+        <v>122.67</v>
       </c>
       <c r="N11" s="2" t="n">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>0</v>
+        <v>13.81</v>
       </c>
       <c r="Q11" s="2" t="n">
         <v>0</v>
@@ -1163,137 +1163,197 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>MOROCHO BACUILIMA HILDA INES</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>VIEJO RIVAS MAYRA ANABELLE</t>
         </is>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>0 de 11</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>0 de 11</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="inlineStr">
-        <is>
-          <t>0 de 11</t>
-        </is>
-      </c>
-      <c r="F13" s="3" t="inlineStr">
-        <is>
-          <t>0 de 11</t>
-        </is>
-      </c>
-      <c r="G13" s="3" t="inlineStr">
-        <is>
-          <t>0 de 11</t>
-        </is>
-      </c>
-      <c r="H13" s="3" t="inlineStr">
-        <is>
-          <t>0 de 11</t>
-        </is>
-      </c>
-      <c r="I13" s="3" t="inlineStr">
-        <is>
-          <t>0 de 11</t>
-        </is>
-      </c>
-      <c r="J13" s="3" t="inlineStr">
-        <is>
-          <t>0 de 11</t>
-        </is>
-      </c>
-      <c r="K13" s="3" t="inlineStr">
-        <is>
-          <t>0 de 11</t>
-        </is>
-      </c>
-      <c r="L13" s="3" t="inlineStr">
-        <is>
-          <t>0 de 11</t>
-        </is>
-      </c>
-      <c r="M13" s="3" t="inlineStr">
-        <is>
-          <t>3 de 11</t>
-        </is>
-      </c>
-      <c r="N13" s="3" t="inlineStr">
-        <is>
-          <t>0 de 11</t>
-        </is>
-      </c>
-      <c r="O13" s="3" t="inlineStr">
-        <is>
-          <t>0 de 11</t>
-        </is>
-      </c>
-      <c r="P13" s="3" t="inlineStr">
-        <is>
-          <t>1 de 11</t>
-        </is>
-      </c>
-      <c r="Q13" s="3" t="inlineStr">
-        <is>
-          <t>0 de 11</t>
-        </is>
-      </c>
-      <c r="R13" s="3" t="inlineStr">
-        <is>
-          <t>0 de 11</t>
+      <c r="C13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>0 de 12</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>0 de 12</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>0 de 12</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>0 de 12</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>0 de 12</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="inlineStr">
+        <is>
+          <t>0 de 12</t>
+        </is>
+      </c>
+      <c r="I14" s="3" t="inlineStr">
+        <is>
+          <t>0 de 12</t>
+        </is>
+      </c>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
+          <t>0 de 12</t>
+        </is>
+      </c>
+      <c r="K14" s="3" t="inlineStr">
+        <is>
+          <t>0 de 12</t>
+        </is>
+      </c>
+      <c r="L14" s="3" t="inlineStr">
+        <is>
+          <t>0 de 12</t>
+        </is>
+      </c>
+      <c r="M14" s="3" t="inlineStr">
+        <is>
+          <t>3 de 12</t>
+        </is>
+      </c>
+      <c r="N14" s="3" t="inlineStr">
+        <is>
+          <t>0 de 12</t>
+        </is>
+      </c>
+      <c r="O14" s="3" t="inlineStr">
+        <is>
+          <t>0 de 12</t>
+        </is>
+      </c>
+      <c r="P14" s="3" t="inlineStr">
+        <is>
+          <t>1 de 12</t>
+        </is>
+      </c>
+      <c r="Q14" s="3" t="inlineStr">
+        <is>
+          <t>0 de 12</t>
+        </is>
+      </c>
+      <c r="R14" s="3" t="inlineStr">
+        <is>
+          <t>0 de 12</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1397,7 +1457,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BRAVO MONTENEGRO DANIEL ANDRES</t>
+          <t>BARROS YUNGA DIEGO VINICIO</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -1424,7 +1484,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRITO CARDENAS RUTH CECILIA</t>
+          <t>BRAVO MONTENEGRO DANIEL ANDRES</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -1451,7 +1511,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>COELLO TRONCOSO JOSE GREGORIO</t>
+          <t>BRITO CARDENAS RUTH CECILIA</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -1478,7 +1538,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>COMERCIAL LUNA PAZMIÑO CIA. LTDA.</t>
+          <t>COELLO TRONCOSO JOSE GREGORIO</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -1505,7 +1565,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CORPORACION AREVALO-YUMBLA E HIJOS</t>
+          <t>COMERCIAL LUNA PAZMIÑO CIA. LTDA.</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -1532,11 +1592,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FABIMP BENIGNO BRAVO S.A.S.</t>
+          <t>CORPORACION AREVALO-YUMBLA E HIJOS</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>1187.62</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>0</v>
@@ -1545,10 +1605,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>43.1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1559,11 +1619,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FRANK FERRETERIA FRANKFERRE CIA.</t>
+          <t>FABIMP BENIGNO BRAVO S.A.S.</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0</v>
+        <v>1187.62</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>0</v>
@@ -1572,10 +1632,10 @@
         <v>0</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>5372.02</v>
+        <v>43.1</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1586,7 +1646,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+          <t>FRANK FERRETERIA FRANKFERRE CIA.</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -1599,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>136.48</v>
+        <v>5372.02</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>0</v>
@@ -1613,7 +1673,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MOROCHO BACUILIMA HILDA INES</t>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -1626,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>0</v>
+        <v>136.48</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>0</v>
@@ -1640,39 +1700,66 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>MOROCHO BACUILIMA HILDA INES</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>VIEJO RIVAS MAYRA ANABELLE</t>
         </is>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" s="4" t="n">
         <v>1187.62</v>
       </c>
-      <c r="D13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4" t="n">
+      <c r="D14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4" t="n">
         <v>5551.6</v>
       </c>
-      <c r="G13" s="4" t="n">
+      <c r="G14" s="4" t="n">
         <v>1200</v>
       </c>
     </row>

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0</v>
+        <v>595.08</v>
       </c>
       <c r="I3" s="2" t="n">
         <v>0</v>
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>43.1</v>
+        <v>400.46</v>
       </c>
       <c r="N9" s="2" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0</v>
+        <v>102.6</v>
       </c>
       <c r="I12" s="2" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="H14" s="3" t="inlineStr">
         <is>
-          <t>0 de 12</t>
+          <t>2 de 12</t>
         </is>
       </c>
       <c r="I14" s="3" t="inlineStr">
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>0</v>
+        <v>595.08</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>0</v>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>43.1</v>
+        <v>400.46</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>1000</v>
@@ -1713,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>0</v>
+        <v>102.6</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>0</v>
@@ -1757,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="4" t="n">
-        <v>5551.6</v>
+        <v>6606.64</v>
       </c>
       <c r="G14" s="4" t="n">
         <v>1200</v>

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>595.08</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2" t="n">
         <v>0</v>
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>400.46</v>
+        <v>0</v>
       </c>
       <c r="N9" s="2" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>5372.02</v>
+        <v>0</v>
       </c>
       <c r="N10" s="2" t="n">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>122.67</v>
+        <v>0</v>
       </c>
       <c r="N11" s="2" t="n">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>13.81</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="2" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>102.6</v>
+        <v>0</v>
       </c>
       <c r="I12" s="2" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="H14" s="3" t="inlineStr">
         <is>
-          <t>2 de 12</t>
+          <t>0 de 12</t>
         </is>
       </c>
       <c r="I14" s="3" t="inlineStr">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="M14" s="3" t="inlineStr">
         <is>
-          <t>3 de 12</t>
+          <t>0 de 12</t>
         </is>
       </c>
       <c r="N14" s="3" t="inlineStr">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="P14" s="3" t="inlineStr">
         <is>
-          <t>1 de 12</t>
+          <t>0 de 12</t>
         </is>
       </c>
       <c r="Q14" s="3" t="inlineStr">
@@ -1378,10 +1378,10 @@
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
     <col width="36" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="16" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="16" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -1398,22 +1398,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>junio</t>
+          <t>julio</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>julio</t>
+          <t>agosto</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>agosto</t>
+          <t>septiembre</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>septiembre</t>
+          <t>octubre</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -1467,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0</v>
+        <v>595.08</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>595.08</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>0</v>
@@ -1623,16 +1623,16 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>1187.62</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0</v>
+        <v>400.46</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>400.46</v>
+        <v>0</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>1000</v>
@@ -1656,10 +1656,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0</v>
+        <v>5372.02</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>5372.02</v>
+        <v>0</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>0</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0</v>
+        <v>136.48</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>136.48</v>
+        <v>0</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>0</v>
@@ -1710,10 +1710,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0</v>
+        <v>102.6</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>102.6</v>
+        <v>0</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>0</v>
@@ -1748,16 +1748,16 @@
     </row>
     <row r="14">
       <c r="C14" s="4" t="n">
-        <v>1187.62</v>
+        <v>0</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>0</v>
+        <v>6606.64</v>
       </c>
       <c r="F14" s="4" t="n">
-        <v>6606.64</v>
+        <v>0</v>
       </c>
       <c r="G14" s="4" t="n">
         <v>1200</v>

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0</v>
+        <v>17.99</v>
       </c>
       <c r="I3" s="2" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="H14" s="3" t="inlineStr">
         <is>
-          <t>0 de 12</t>
+          <t>1 de 12</t>
         </is>
       </c>
       <c r="I14" s="3" t="inlineStr">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1470,7 +1470,7 @@
         <v>595.08</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>0</v>
+        <v>17.99</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>0</v>
@@ -1635,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1757,10 +1757,10 @@
         <v>6606.64</v>
       </c>
       <c r="F14" s="4" t="n">
-        <v>0</v>
+        <v>17.99</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1223,137 +1223,197 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>PAUTA ASTUDILLO JULIO HERNAN</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>VIEJO RIVAS MAYRA ANABELLE</t>
         </is>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>0 de 12</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>0 de 12</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="inlineStr">
-        <is>
-          <t>0 de 12</t>
-        </is>
-      </c>
-      <c r="F14" s="3" t="inlineStr">
-        <is>
-          <t>0 de 12</t>
-        </is>
-      </c>
-      <c r="G14" s="3" t="inlineStr">
-        <is>
-          <t>0 de 12</t>
-        </is>
-      </c>
-      <c r="H14" s="3" t="inlineStr">
-        <is>
-          <t>1 de 12</t>
-        </is>
-      </c>
-      <c r="I14" s="3" t="inlineStr">
-        <is>
-          <t>0 de 12</t>
-        </is>
-      </c>
-      <c r="J14" s="3" t="inlineStr">
-        <is>
-          <t>0 de 12</t>
-        </is>
-      </c>
-      <c r="K14" s="3" t="inlineStr">
-        <is>
-          <t>0 de 12</t>
-        </is>
-      </c>
-      <c r="L14" s="3" t="inlineStr">
-        <is>
-          <t>0 de 12</t>
-        </is>
-      </c>
-      <c r="M14" s="3" t="inlineStr">
-        <is>
-          <t>0 de 12</t>
-        </is>
-      </c>
-      <c r="N14" s="3" t="inlineStr">
-        <is>
-          <t>0 de 12</t>
-        </is>
-      </c>
-      <c r="O14" s="3" t="inlineStr">
-        <is>
-          <t>0 de 12</t>
-        </is>
-      </c>
-      <c r="P14" s="3" t="inlineStr">
-        <is>
-          <t>0 de 12</t>
-        </is>
-      </c>
-      <c r="Q14" s="3" t="inlineStr">
-        <is>
-          <t>0 de 12</t>
-        </is>
-      </c>
-      <c r="R14" s="3" t="inlineStr">
-        <is>
-          <t>0 de 12</t>
+      <c r="C14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>0 de 13</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>0 de 13</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>0 de 13</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>0 de 13</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>0 de 13</t>
+        </is>
+      </c>
+      <c r="H15" s="3" t="inlineStr">
+        <is>
+          <t>1 de 13</t>
+        </is>
+      </c>
+      <c r="I15" s="3" t="inlineStr">
+        <is>
+          <t>0 de 13</t>
+        </is>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>0 de 13</t>
+        </is>
+      </c>
+      <c r="K15" s="3" t="inlineStr">
+        <is>
+          <t>0 de 13</t>
+        </is>
+      </c>
+      <c r="L15" s="3" t="inlineStr">
+        <is>
+          <t>0 de 13</t>
+        </is>
+      </c>
+      <c r="M15" s="3" t="inlineStr">
+        <is>
+          <t>0 de 13</t>
+        </is>
+      </c>
+      <c r="N15" s="3" t="inlineStr">
+        <is>
+          <t>0 de 13</t>
+        </is>
+      </c>
+      <c r="O15" s="3" t="inlineStr">
+        <is>
+          <t>0 de 13</t>
+        </is>
+      </c>
+      <c r="P15" s="3" t="inlineStr">
+        <is>
+          <t>0 de 13</t>
+        </is>
+      </c>
+      <c r="Q15" s="3" t="inlineStr">
+        <is>
+          <t>0 de 13</t>
+        </is>
+      </c>
+      <c r="R15" s="3" t="inlineStr">
+        <is>
+          <t>0 de 13</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1727,39 +1787,66 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>PAUTA ASTUDILLO JULIO HERNAN</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>VIEJO RIVAS MAYRA ANABELLE</t>
         </is>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="C14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4" t="n">
+      <c r="C14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4" t="n">
         <v>6606.64</v>
       </c>
-      <c r="F14" s="4" t="n">
+      <c r="F15" s="4" t="n">
         <v>17.99</v>
       </c>
-      <c r="G14" s="4" t="n">
+      <c r="G15" s="4" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -942,10 +942,10 @@
         <v>0</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0</v>
+        <v>307.8</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="J8" s="2" t="n">
         <v>0</v>
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>0</v>
+        <v>3555.5</v>
       </c>
       <c r="N8" s="2" t="n">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0</v>
+        <v>615.6</v>
       </c>
       <c r="I10" s="2" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>0</v>
+        <v>1886.28</v>
       </c>
       <c r="N10" s="2" t="n">
         <v>0</v>
@@ -1363,32 +1363,32 @@
       </c>
       <c r="H15" s="3" t="inlineStr">
         <is>
+          <t>3 de 13</t>
+        </is>
+      </c>
+      <c r="I15" s="3" t="inlineStr">
+        <is>
           <t>1 de 13</t>
         </is>
       </c>
-      <c r="I15" s="3" t="inlineStr">
+      <c r="J15" s="3" t="inlineStr">
         <is>
           <t>0 de 13</t>
         </is>
       </c>
-      <c r="J15" s="3" t="inlineStr">
+      <c r="K15" s="3" t="inlineStr">
         <is>
           <t>0 de 13</t>
         </is>
       </c>
-      <c r="K15" s="3" t="inlineStr">
+      <c r="L15" s="3" t="inlineStr">
         <is>
           <t>0 de 13</t>
         </is>
       </c>
-      <c r="L15" s="3" t="inlineStr">
-        <is>
-          <t>0 de 13</t>
-        </is>
-      </c>
       <c r="M15" s="3" t="inlineStr">
         <is>
-          <t>0 de 13</t>
+          <t>2 de 13</t>
         </is>
       </c>
       <c r="N15" s="3" t="inlineStr">
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>0</v>
+        <v>3992.9</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>0</v>
@@ -1719,7 +1719,7 @@
         <v>5372.02</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>0</v>
+        <v>2501.88</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>6606.64</v>
       </c>
       <c r="F15" s="4" t="n">
-        <v>17.99</v>
+        <v>6512.77</v>
       </c>
       <c r="G15" s="4" t="n">
         <v>0</v>

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,7 +444,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="36" customWidth="1" min="2" max="2"/>
+    <col width="41" customWidth="1" min="2" max="2"/>
     <col width="25" customWidth="1" min="3" max="3"/>
     <col width="24" customWidth="1" min="4" max="4"/>
     <col width="26" customWidth="1" min="5" max="5"/>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MOROCHO BACUILIMA HILDA INES</t>
+          <t>MIM CONSTRUFERRETERIA E IMPORTADORA SAS</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PAUTA ASTUDILLO JULIO HERNAN</t>
+          <t>MOROCHO BACUILIMA HILDA INES</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -1283,137 +1283,197 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>PAUTA ASTUDILLO JULIO HERNAN</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>VIEJO RIVAS MAYRA ANABELLE</t>
         </is>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>0 de 13</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>0 de 13</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="inlineStr">
-        <is>
-          <t>0 de 13</t>
-        </is>
-      </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>0 de 13</t>
-        </is>
-      </c>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>0 de 13</t>
-        </is>
-      </c>
-      <c r="H15" s="3" t="inlineStr">
-        <is>
-          <t>3 de 13</t>
-        </is>
-      </c>
-      <c r="I15" s="3" t="inlineStr">
-        <is>
-          <t>1 de 13</t>
-        </is>
-      </c>
-      <c r="J15" s="3" t="inlineStr">
-        <is>
-          <t>0 de 13</t>
-        </is>
-      </c>
-      <c r="K15" s="3" t="inlineStr">
-        <is>
-          <t>0 de 13</t>
-        </is>
-      </c>
-      <c r="L15" s="3" t="inlineStr">
-        <is>
-          <t>0 de 13</t>
-        </is>
-      </c>
-      <c r="M15" s="3" t="inlineStr">
-        <is>
-          <t>2 de 13</t>
-        </is>
-      </c>
-      <c r="N15" s="3" t="inlineStr">
-        <is>
-          <t>0 de 13</t>
-        </is>
-      </c>
-      <c r="O15" s="3" t="inlineStr">
-        <is>
-          <t>0 de 13</t>
-        </is>
-      </c>
-      <c r="P15" s="3" t="inlineStr">
-        <is>
-          <t>0 de 13</t>
-        </is>
-      </c>
-      <c r="Q15" s="3" t="inlineStr">
-        <is>
-          <t>0 de 13</t>
-        </is>
-      </c>
-      <c r="R15" s="3" t="inlineStr">
-        <is>
-          <t>0 de 13</t>
+      <c r="C15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>0 de 14</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>0 de 14</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>0 de 14</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>0 de 14</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>0 de 14</t>
+        </is>
+      </c>
+      <c r="H16" s="3" t="inlineStr">
+        <is>
+          <t>3 de 14</t>
+        </is>
+      </c>
+      <c r="I16" s="3" t="inlineStr">
+        <is>
+          <t>1 de 14</t>
+        </is>
+      </c>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>0 de 14</t>
+        </is>
+      </c>
+      <c r="K16" s="3" t="inlineStr">
+        <is>
+          <t>0 de 14</t>
+        </is>
+      </c>
+      <c r="L16" s="3" t="inlineStr">
+        <is>
+          <t>0 de 14</t>
+        </is>
+      </c>
+      <c r="M16" s="3" t="inlineStr">
+        <is>
+          <t>2 de 14</t>
+        </is>
+      </c>
+      <c r="N16" s="3" t="inlineStr">
+        <is>
+          <t>0 de 14</t>
+        </is>
+      </c>
+      <c r="O16" s="3" t="inlineStr">
+        <is>
+          <t>0 de 14</t>
+        </is>
+      </c>
+      <c r="P16" s="3" t="inlineStr">
+        <is>
+          <t>0 de 14</t>
+        </is>
+      </c>
+      <c r="Q16" s="3" t="inlineStr">
+        <is>
+          <t>0 de 14</t>
+        </is>
+      </c>
+      <c r="R16" s="3" t="inlineStr">
+        <is>
+          <t>0 de 14</t>
         </is>
       </c>
     </row>
@@ -1428,7 +1488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1437,7 +1497,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="36" customWidth="1" min="2" max="2"/>
+    <col width="41" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
     <col width="16" customWidth="1" min="5" max="5"/>
@@ -1760,7 +1820,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MOROCHO BACUILIMA HILDA INES</t>
+          <t>MIM CONSTRUFERRETERIA E IMPORTADORA SAS</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -1770,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>102.6</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>0</v>
@@ -1787,7 +1847,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PAUTA ASTUDILLO JULIO HERNAN</t>
+          <t>MOROCHO BACUILIMA HILDA INES</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -1797,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0</v>
+        <v>102.6</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>0</v>
@@ -1814,39 +1874,66 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>PAUTA ASTUDILLO JULIO HERNAN</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>VIEJO RIVAS MAYRA ANABELLE</t>
         </is>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="C15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4" t="n">
+      <c r="C15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4" t="n">
         <v>6606.64</v>
       </c>
-      <c r="F15" s="4" t="n">
+      <c r="F16" s="4" t="n">
         <v>6512.77</v>
       </c>
-      <c r="G15" s="4" t="n">
+      <c r="G16" s="4" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>0</v>
+        <v>1058.35</v>
       </c>
       <c r="N12" s="2" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="M16" s="3" t="inlineStr">
         <is>
-          <t>2 de 14</t>
+          <t>3 de 14</t>
         </is>
       </c>
       <c r="N16" s="3" t="inlineStr">
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>0</v>
+        <v>1058.35</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>0</v>
@@ -1931,7 +1931,7 @@
         <v>6606.64</v>
       </c>
       <c r="F16" s="4" t="n">
-        <v>6512.77</v>
+        <v>7571.12</v>
       </c>
       <c r="G16" s="4" t="n">
         <v>0</v>

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PAUTA ASTUDILLO JULIO HERNAN</t>
+          <t>MULLO GUACHO ANA LUCIA</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -1343,137 +1343,197 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>PAUTA ASTUDILLO JULIO HERNAN</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>VIEJO RIVAS MAYRA ANABELLE</t>
         </is>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>0 de 14</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>0 de 14</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="inlineStr">
-        <is>
-          <t>0 de 14</t>
-        </is>
-      </c>
-      <c r="F16" s="3" t="inlineStr">
-        <is>
-          <t>0 de 14</t>
-        </is>
-      </c>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>0 de 14</t>
-        </is>
-      </c>
-      <c r="H16" s="3" t="inlineStr">
-        <is>
-          <t>3 de 14</t>
-        </is>
-      </c>
-      <c r="I16" s="3" t="inlineStr">
-        <is>
-          <t>1 de 14</t>
-        </is>
-      </c>
-      <c r="J16" s="3" t="inlineStr">
-        <is>
-          <t>0 de 14</t>
-        </is>
-      </c>
-      <c r="K16" s="3" t="inlineStr">
-        <is>
-          <t>0 de 14</t>
-        </is>
-      </c>
-      <c r="L16" s="3" t="inlineStr">
-        <is>
-          <t>0 de 14</t>
-        </is>
-      </c>
-      <c r="M16" s="3" t="inlineStr">
-        <is>
-          <t>3 de 14</t>
-        </is>
-      </c>
-      <c r="N16" s="3" t="inlineStr">
-        <is>
-          <t>0 de 14</t>
-        </is>
-      </c>
-      <c r="O16" s="3" t="inlineStr">
-        <is>
-          <t>0 de 14</t>
-        </is>
-      </c>
-      <c r="P16" s="3" t="inlineStr">
-        <is>
-          <t>0 de 14</t>
-        </is>
-      </c>
-      <c r="Q16" s="3" t="inlineStr">
-        <is>
-          <t>0 de 14</t>
-        </is>
-      </c>
-      <c r="R16" s="3" t="inlineStr">
-        <is>
-          <t>0 de 14</t>
+      <c r="C16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>0 de 15</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>0 de 15</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>0 de 15</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>0 de 15</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>0 de 15</t>
+        </is>
+      </c>
+      <c r="H17" s="3" t="inlineStr">
+        <is>
+          <t>3 de 15</t>
+        </is>
+      </c>
+      <c r="I17" s="3" t="inlineStr">
+        <is>
+          <t>1 de 15</t>
+        </is>
+      </c>
+      <c r="J17" s="3" t="inlineStr">
+        <is>
+          <t>0 de 15</t>
+        </is>
+      </c>
+      <c r="K17" s="3" t="inlineStr">
+        <is>
+          <t>0 de 15</t>
+        </is>
+      </c>
+      <c r="L17" s="3" t="inlineStr">
+        <is>
+          <t>0 de 15</t>
+        </is>
+      </c>
+      <c r="M17" s="3" t="inlineStr">
+        <is>
+          <t>3 de 15</t>
+        </is>
+      </c>
+      <c r="N17" s="3" t="inlineStr">
+        <is>
+          <t>0 de 15</t>
+        </is>
+      </c>
+      <c r="O17" s="3" t="inlineStr">
+        <is>
+          <t>0 de 15</t>
+        </is>
+      </c>
+      <c r="P17" s="3" t="inlineStr">
+        <is>
+          <t>0 de 15</t>
+        </is>
+      </c>
+      <c r="Q17" s="3" t="inlineStr">
+        <is>
+          <t>0 de 15</t>
+        </is>
+      </c>
+      <c r="R17" s="3" t="inlineStr">
+        <is>
+          <t>0 de 15</t>
         </is>
       </c>
     </row>
@@ -1488,7 +1548,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1874,7 +1934,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PAUTA ASTUDILLO JULIO HERNAN</t>
+          <t>MULLO GUACHO ANA LUCIA</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -1901,39 +1961,66 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>PAUTA ASTUDILLO JULIO HERNAN</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>VIEJO RIVAS MAYRA ANABELLE</t>
         </is>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="C16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4" t="n">
+      <c r="C16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4" t="n">
         <v>6606.64</v>
       </c>
-      <c r="F16" s="4" t="n">
+      <c r="F17" s="4" t="n">
         <v>7571.12</v>
       </c>
-      <c r="G16" s="4" t="n">
+      <c r="G17" s="4" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>0</v>
+        <v>252.25</v>
       </c>
       <c r="N9" s="2" t="n">
         <v>0</v>
@@ -1362,10 +1362,10 @@
         <v>0</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0</v>
+        <v>205.2</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0</v>
+        <v>85.5</v>
       </c>
       <c r="J15" s="2" t="n">
         <v>0</v>
@@ -1483,12 +1483,12 @@
       </c>
       <c r="H17" s="3" t="inlineStr">
         <is>
-          <t>3 de 15</t>
+          <t>4 de 15</t>
         </is>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>1 de 15</t>
+          <t>2 de 15</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="M17" s="3" t="inlineStr">
         <is>
-          <t>3 de 15</t>
+          <t>4 de 15</t>
         </is>
       </c>
       <c r="N17" s="3" t="inlineStr">
@@ -1812,7 +1812,7 @@
         <v>400.46</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>0</v>
+        <v>252.25</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>0</v>
+        <v>290.7</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>0</v>
@@ -2018,7 +2018,7 @@
         <v>6606.64</v>
       </c>
       <c r="F17" s="4" t="n">
-        <v>7571.12</v>
+        <v>8114.07</v>
       </c>
       <c r="G17" s="4" t="n">
         <v>0</v>

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1403,137 +1403,197 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>ROCAFUERTE LOPEZ EVELYN ESTEFANIA</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>VIEJO RIVAS MAYRA ANABELLE</t>
         </is>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>0 de 15</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>0 de 15</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>0 de 15</t>
-        </is>
-      </c>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>0 de 15</t>
-        </is>
-      </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>0 de 15</t>
-        </is>
-      </c>
-      <c r="H17" s="3" t="inlineStr">
-        <is>
-          <t>4 de 15</t>
-        </is>
-      </c>
-      <c r="I17" s="3" t="inlineStr">
-        <is>
-          <t>2 de 15</t>
-        </is>
-      </c>
-      <c r="J17" s="3" t="inlineStr">
-        <is>
-          <t>0 de 15</t>
-        </is>
-      </c>
-      <c r="K17" s="3" t="inlineStr">
-        <is>
-          <t>0 de 15</t>
-        </is>
-      </c>
-      <c r="L17" s="3" t="inlineStr">
-        <is>
-          <t>0 de 15</t>
-        </is>
-      </c>
-      <c r="M17" s="3" t="inlineStr">
-        <is>
-          <t>4 de 15</t>
-        </is>
-      </c>
-      <c r="N17" s="3" t="inlineStr">
-        <is>
-          <t>0 de 15</t>
-        </is>
-      </c>
-      <c r="O17" s="3" t="inlineStr">
-        <is>
-          <t>0 de 15</t>
-        </is>
-      </c>
-      <c r="P17" s="3" t="inlineStr">
-        <is>
-          <t>0 de 15</t>
-        </is>
-      </c>
-      <c r="Q17" s="3" t="inlineStr">
-        <is>
-          <t>0 de 15</t>
-        </is>
-      </c>
-      <c r="R17" s="3" t="inlineStr">
-        <is>
-          <t>0 de 15</t>
+      <c r="C17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>0 de 16</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>0 de 16</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>0 de 16</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>0 de 16</t>
+        </is>
+      </c>
+      <c r="G18" s="3" t="inlineStr">
+        <is>
+          <t>0 de 16</t>
+        </is>
+      </c>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
+          <t>4 de 16</t>
+        </is>
+      </c>
+      <c r="I18" s="3" t="inlineStr">
+        <is>
+          <t>2 de 16</t>
+        </is>
+      </c>
+      <c r="J18" s="3" t="inlineStr">
+        <is>
+          <t>0 de 16</t>
+        </is>
+      </c>
+      <c r="K18" s="3" t="inlineStr">
+        <is>
+          <t>0 de 16</t>
+        </is>
+      </c>
+      <c r="L18" s="3" t="inlineStr">
+        <is>
+          <t>0 de 16</t>
+        </is>
+      </c>
+      <c r="M18" s="3" t="inlineStr">
+        <is>
+          <t>4 de 16</t>
+        </is>
+      </c>
+      <c r="N18" s="3" t="inlineStr">
+        <is>
+          <t>0 de 16</t>
+        </is>
+      </c>
+      <c r="O18" s="3" t="inlineStr">
+        <is>
+          <t>0 de 16</t>
+        </is>
+      </c>
+      <c r="P18" s="3" t="inlineStr">
+        <is>
+          <t>0 de 16</t>
+        </is>
+      </c>
+      <c r="Q18" s="3" t="inlineStr">
+        <is>
+          <t>0 de 16</t>
+        </is>
+      </c>
+      <c r="R18" s="3" t="inlineStr">
+        <is>
+          <t>0 de 16</t>
         </is>
       </c>
     </row>
@@ -1548,7 +1608,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1988,39 +2048,66 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>ROCAFUERTE LOPEZ EVELYN ESTEFANIA</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>VIEJO RIVAS MAYRA ANABELLE</t>
         </is>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="C17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4" t="n">
+      <c r="C17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4" t="n">
         <v>6606.64</v>
       </c>
-      <c r="F17" s="4" t="n">
+      <c r="F18" s="4" t="n">
         <v>8114.07</v>
       </c>
-      <c r="G17" s="4" t="n">
+      <c r="G18" s="4" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -1377,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>0</v>
+        <v>36.03</v>
       </c>
       <c r="N15" s="2" t="n">
         <v>0</v>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="M18" s="3" t="inlineStr">
         <is>
-          <t>4 de 16</t>
+          <t>5 de 16</t>
         </is>
       </c>
       <c r="N18" s="3" t="inlineStr">
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>290.7</v>
+        <v>326.73</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>0</v>
@@ -2105,7 +2105,7 @@
         <v>6606.64</v>
       </c>
       <c r="F18" s="4" t="n">
-        <v>8114.07</v>
+        <v>8150.1</v>
       </c>
       <c r="G18" s="4" t="n">
         <v>0</v>

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -1413,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0</v>
+        <v>71.55</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>0</v>
@@ -1437,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>0</v>
+        <v>944.1900000000001</v>
       </c>
       <c r="N16" s="2" t="n">
         <v>0</v>
@@ -1528,47 +1528,47 @@
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
+          <t>1 de 16</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
           <t>0 de 16</t>
         </is>
       </c>
-      <c r="F18" s="3" t="inlineStr">
+      <c r="G18" s="3" t="inlineStr">
         <is>
           <t>0 de 16</t>
         </is>
       </c>
-      <c r="G18" s="3" t="inlineStr">
+      <c r="H18" s="3" t="inlineStr">
+        <is>
+          <t>4 de 16</t>
+        </is>
+      </c>
+      <c r="I18" s="3" t="inlineStr">
+        <is>
+          <t>2 de 16</t>
+        </is>
+      </c>
+      <c r="J18" s="3" t="inlineStr">
         <is>
           <t>0 de 16</t>
         </is>
       </c>
-      <c r="H18" s="3" t="inlineStr">
-        <is>
-          <t>4 de 16</t>
-        </is>
-      </c>
-      <c r="I18" s="3" t="inlineStr">
-        <is>
-          <t>2 de 16</t>
-        </is>
-      </c>
-      <c r="J18" s="3" t="inlineStr">
+      <c r="K18" s="3" t="inlineStr">
         <is>
           <t>0 de 16</t>
         </is>
       </c>
-      <c r="K18" s="3" t="inlineStr">
+      <c r="L18" s="3" t="inlineStr">
         <is>
           <t>0 de 16</t>
         </is>
       </c>
-      <c r="L18" s="3" t="inlineStr">
-        <is>
-          <t>0 de 16</t>
-        </is>
-      </c>
       <c r="M18" s="3" t="inlineStr">
         <is>
-          <t>5 de 16</t>
+          <t>6 de 16</t>
         </is>
       </c>
       <c r="N18" s="3" t="inlineStr">
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>0</v>
+        <v>1015.74</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>0</v>
@@ -2105,7 +2105,7 @@
         <v>6606.64</v>
       </c>
       <c r="F18" s="4" t="n">
-        <v>8150.1</v>
+        <v>9165.84</v>
       </c>
       <c r="G18" s="4" t="n">
         <v>0</v>

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -1137,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>0</v>
+        <v>58.48</v>
       </c>
       <c r="N11" s="2" t="n">
         <v>0</v>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="M18" s="3" t="inlineStr">
         <is>
-          <t>6 de 16</t>
+          <t>7 de 16</t>
         </is>
       </c>
       <c r="N18" s="3" t="inlineStr">
@@ -1926,7 +1926,7 @@
         <v>136.48</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>0</v>
+        <v>58.48</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>0</v>
@@ -2105,7 +2105,7 @@
         <v>6606.64</v>
       </c>
       <c r="F18" s="4" t="n">
-        <v>9165.84</v>
+        <v>9224.32</v>
       </c>
       <c r="G18" s="4" t="n">
         <v>0</v>

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>1886.28</v>
+        <v>7046.97</v>
       </c>
       <c r="N10" s="2" t="n">
         <v>0</v>
@@ -1191,13 +1191,13 @@
         <v>0</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>0</v>
+        <v>1373.9</v>
       </c>
       <c r="L12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>1058.35</v>
+        <v>2522.28</v>
       </c>
       <c r="N12" s="2" t="n">
         <v>0</v>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="K18" s="3" t="inlineStr">
         <is>
-          <t>0 de 16</t>
+          <t>1 de 16</t>
         </is>
       </c>
       <c r="L18" s="3" t="inlineStr">
@@ -1899,7 +1899,7 @@
         <v>5372.02</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>2501.88</v>
+        <v>7662.57</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>0</v>
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1058.35</v>
+        <v>3896.18</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>0</v>
@@ -2105,7 +2105,7 @@
         <v>6606.64</v>
       </c>
       <c r="F18" s="4" t="n">
-        <v>9224.32</v>
+        <v>17222.84</v>
       </c>
       <c r="G18" s="4" t="n">
         <v>0</v>

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>17.99</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2" t="n">
         <v>0</v>
@@ -942,10 +942,10 @@
         <v>0</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>307.8</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>129.6</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2" t="n">
         <v>0</v>
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3555.5</v>
+        <v>0</v>
       </c>
       <c r="N8" s="2" t="n">
         <v>0</v>
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>252.25</v>
+        <v>0</v>
       </c>
       <c r="N9" s="2" t="n">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>615.6</v>
+        <v>0</v>
       </c>
       <c r="I10" s="2" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>7046.97</v>
+        <v>0</v>
       </c>
       <c r="N10" s="2" t="n">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>58.48</v>
+        <v>0</v>
       </c>
       <c r="N11" s="2" t="n">
         <v>0</v>
@@ -1191,13 +1191,13 @@
         <v>0</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1373.9</v>
+        <v>0</v>
       </c>
       <c r="L12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>2522.28</v>
+        <v>0</v>
       </c>
       <c r="N12" s="2" t="n">
         <v>0</v>
@@ -1362,10 +1362,10 @@
         <v>0</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>205.2</v>
+        <v>0</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>85.5</v>
+        <v>0</v>
       </c>
       <c r="J15" s="2" t="n">
         <v>0</v>
@@ -1377,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>36.03</v>
+        <v>0</v>
       </c>
       <c r="N15" s="2" t="n">
         <v>0</v>
@@ -1413,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>71.55</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>0</v>
@@ -1437,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>944.1900000000001</v>
+        <v>0</v>
       </c>
       <c r="N16" s="2" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>1 de 16</t>
+          <t>0 de 16</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
@@ -1543,12 +1543,12 @@
       </c>
       <c r="H18" s="3" t="inlineStr">
         <is>
-          <t>4 de 16</t>
+          <t>0 de 16</t>
         </is>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>2 de 16</t>
+          <t>0 de 16</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1558,7 +1558,7 @@
       </c>
       <c r="K18" s="3" t="inlineStr">
         <is>
-          <t>1 de 16</t>
+          <t>0 de 16</t>
         </is>
       </c>
       <c r="L18" s="3" t="inlineStr">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="M18" s="3" t="inlineStr">
         <is>
-          <t>7 de 16</t>
+          <t>0 de 16</t>
         </is>
       </c>
       <c r="N18" s="3" t="inlineStr">
@@ -1618,10 +1618,10 @@
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
     <col width="41" customWidth="1" min="2" max="2"/>
-    <col width="11" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
-    <col width="13" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="16" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -1638,22 +1638,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>julio</t>
+          <t>agosto</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>agosto</t>
+          <t>septiembre</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>septiembre</t>
+          <t>octubre</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>octubre</t>
+          <t>noviembre</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -1704,13 +1704,13 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0</v>
+        <v>595.08</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>595.08</v>
+        <v>17.99</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>17.99</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>0</v>
@@ -1842,10 +1842,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0</v>
+        <v>3992.9</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>3992.9</v>
+        <v>0</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>0</v>
@@ -1866,13 +1866,13 @@
         <v>0</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0</v>
+        <v>400.46</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>400.46</v>
+        <v>252.25</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>252.25</v>
+        <v>0</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>0</v>
@@ -1893,13 +1893,13 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0</v>
+        <v>5372.02</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>5372.02</v>
+        <v>7662.57</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>7662.57</v>
+        <v>0</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>0</v>
@@ -1920,13 +1920,13 @@
         <v>0</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0</v>
+        <v>136.48</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>136.48</v>
+        <v>58.48</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>58.48</v>
+        <v>0</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0</v>
+        <v>3896.18</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>3896.18</v>
+        <v>0</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>0</v>
@@ -1974,10 +1974,10 @@
         <v>0</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0</v>
+        <v>102.6</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>102.6</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>0</v>
@@ -2031,10 +2031,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0</v>
+        <v>326.73</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>326.73</v>
+        <v>0</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>0</v>
@@ -2058,10 +2058,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0</v>
+        <v>1015.74</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1015.74</v>
+        <v>0</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>0</v>
@@ -2099,13 +2099,13 @@
         <v>0</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>0</v>
+        <v>6606.64</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>6606.64</v>
+        <v>17222.84</v>
       </c>
       <c r="F18" s="4" t="n">
-        <v>17222.84</v>
+        <v>0</v>
       </c>
       <c r="G18" s="4" t="n">
         <v>0</v>

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>0</v>
+        <v>1631.15</v>
       </c>
       <c r="N8" s="2" t="n">
         <v>0</v>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="M18" s="3" t="inlineStr">
         <is>
-          <t>0 de 16</t>
+          <t>1 de 16</t>
         </is>
       </c>
       <c r="N18" s="3" t="inlineStr">
@@ -1845,7 +1845,7 @@
         <v>3992.9</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>0</v>
+        <v>1631.15</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>0</v>
@@ -2105,7 +2105,7 @@
         <v>17222.84</v>
       </c>
       <c r="F18" s="4" t="n">
-        <v>0</v>
+        <v>1631.15</v>
       </c>
       <c r="G18" s="4" t="n">
         <v>0</v>

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -1137,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>0</v>
+        <v>149.32</v>
       </c>
       <c r="N11" s="2" t="n">
         <v>0</v>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="M18" s="3" t="inlineStr">
         <is>
-          <t>1 de 16</t>
+          <t>2 de 16</t>
         </is>
       </c>
       <c r="N18" s="3" t="inlineStr">
@@ -1926,7 +1926,7 @@
         <v>58.48</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>0</v>
+        <v>149.32</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>0</v>
@@ -2105,7 +2105,7 @@
         <v>17222.84</v>
       </c>
       <c r="F18" s="4" t="n">
-        <v>1631.15</v>
+        <v>1780.47</v>
       </c>
       <c r="G18" s="4" t="n">
         <v>0</v>

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -1137,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>149.32</v>
+        <v>162.19</v>
       </c>
       <c r="N11" s="2" t="n">
         <v>0</v>
@@ -1926,7 +1926,7 @@
         <v>58.48</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>149.32</v>
+        <v>162.19</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>0</v>
@@ -2105,7 +2105,7 @@
         <v>17222.84</v>
       </c>
       <c r="F18" s="4" t="n">
-        <v>1780.47</v>
+        <v>1793.34</v>
       </c>
       <c r="G18" s="4" t="n">
         <v>0</v>

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+          <t>HUERTA MUÑOZ NANCY ELIZABETH</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -1137,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>162.19</v>
+        <v>0</v>
       </c>
       <c r="N11" s="2" t="n">
         <v>0</v>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MIM CONSTRUFERRETERIA E IMPORTADORA SAS</t>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>0</v>
+        <v>162.19</v>
       </c>
       <c r="N12" s="2" t="n">
         <v>0</v>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MOROCHO BACUILIMA HILDA INES</t>
+          <t>MIM CONSTRUFERRETERIA E IMPORTADORA SAS</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MULLO GUACHO ANA LUCIA</t>
+          <t>MOROCHO BACUILIMA HILDA INES</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PAUTA ASTUDILLO JULIO HERNAN</t>
+          <t>MULLO GUACHO ANA LUCIA</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ROCAFUERTE LOPEZ EVELYN ESTEFANIA</t>
+          <t>PAUTA ASTUDILLO JULIO HERNAN</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -1463,137 +1463,197 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>ROCAFUERTE LOPEZ EVELYN ESTEFANIA</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>VIEJO RIVAS MAYRA ANABELLE</t>
         </is>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>0 de 16</t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="inlineStr">
-        <is>
-          <t>0 de 16</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="inlineStr">
-        <is>
-          <t>0 de 16</t>
-        </is>
-      </c>
-      <c r="F18" s="3" t="inlineStr">
-        <is>
-          <t>0 de 16</t>
-        </is>
-      </c>
-      <c r="G18" s="3" t="inlineStr">
-        <is>
-          <t>0 de 16</t>
-        </is>
-      </c>
-      <c r="H18" s="3" t="inlineStr">
-        <is>
-          <t>0 de 16</t>
-        </is>
-      </c>
-      <c r="I18" s="3" t="inlineStr">
-        <is>
-          <t>0 de 16</t>
-        </is>
-      </c>
-      <c r="J18" s="3" t="inlineStr">
-        <is>
-          <t>0 de 16</t>
-        </is>
-      </c>
-      <c r="K18" s="3" t="inlineStr">
-        <is>
-          <t>0 de 16</t>
-        </is>
-      </c>
-      <c r="L18" s="3" t="inlineStr">
-        <is>
-          <t>0 de 16</t>
-        </is>
-      </c>
-      <c r="M18" s="3" t="inlineStr">
-        <is>
-          <t>2 de 16</t>
-        </is>
-      </c>
-      <c r="N18" s="3" t="inlineStr">
-        <is>
-          <t>0 de 16</t>
-        </is>
-      </c>
-      <c r="O18" s="3" t="inlineStr">
-        <is>
-          <t>0 de 16</t>
-        </is>
-      </c>
-      <c r="P18" s="3" t="inlineStr">
-        <is>
-          <t>0 de 16</t>
-        </is>
-      </c>
-      <c r="Q18" s="3" t="inlineStr">
-        <is>
-          <t>0 de 16</t>
-        </is>
-      </c>
-      <c r="R18" s="3" t="inlineStr">
-        <is>
-          <t>0 de 16</t>
+      <c r="C18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>0 de 17</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>0 de 17</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>0 de 17</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>0 de 17</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>0 de 17</t>
+        </is>
+      </c>
+      <c r="H19" s="3" t="inlineStr">
+        <is>
+          <t>0 de 17</t>
+        </is>
+      </c>
+      <c r="I19" s="3" t="inlineStr">
+        <is>
+          <t>0 de 17</t>
+        </is>
+      </c>
+      <c r="J19" s="3" t="inlineStr">
+        <is>
+          <t>0 de 17</t>
+        </is>
+      </c>
+      <c r="K19" s="3" t="inlineStr">
+        <is>
+          <t>0 de 17</t>
+        </is>
+      </c>
+      <c r="L19" s="3" t="inlineStr">
+        <is>
+          <t>0 de 17</t>
+        </is>
+      </c>
+      <c r="M19" s="3" t="inlineStr">
+        <is>
+          <t>2 de 17</t>
+        </is>
+      </c>
+      <c r="N19" s="3" t="inlineStr">
+        <is>
+          <t>0 de 17</t>
+        </is>
+      </c>
+      <c r="O19" s="3" t="inlineStr">
+        <is>
+          <t>0 de 17</t>
+        </is>
+      </c>
+      <c r="P19" s="3" t="inlineStr">
+        <is>
+          <t>0 de 17</t>
+        </is>
+      </c>
+      <c r="Q19" s="3" t="inlineStr">
+        <is>
+          <t>0 de 17</t>
+        </is>
+      </c>
+      <c r="R19" s="3" t="inlineStr">
+        <is>
+          <t>0 de 17</t>
         </is>
       </c>
     </row>
@@ -1608,7 +1668,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1913,20 +1973,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+          <t>HUERTA MUÑOZ NANCY ELIZABETH</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>136.48</v>
+        <v>0</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>58.48</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>162.19</v>
+        <v>0</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>0</v>
@@ -1940,20 +2000,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MIM CONSTRUFERRETERIA E IMPORTADORA SAS</t>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0</v>
+        <v>136.48</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>3896.18</v>
+        <v>58.48</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>0</v>
+        <v>162.19</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>0</v>
@@ -1967,17 +2027,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MOROCHO BACUILIMA HILDA INES</t>
+          <t>MIM CONSTRUFERRETERIA E IMPORTADORA SAS</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>102.6</v>
+        <v>0</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0</v>
+        <v>3896.18</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>0</v>
@@ -1994,14 +2054,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MULLO GUACHO ANA LUCIA</t>
+          <t>MOROCHO BACUILIMA HILDA INES</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0</v>
+        <v>102.6</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>0</v>
@@ -2021,7 +2081,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PAUTA ASTUDILLO JULIO HERNAN</t>
+          <t>MULLO GUACHO ANA LUCIA</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -2031,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>326.73</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>0</v>
@@ -2048,7 +2108,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ROCAFUERTE LOPEZ EVELYN ESTEFANIA</t>
+          <t>PAUTA ASTUDILLO JULIO HERNAN</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -2058,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>1015.74</v>
+        <v>326.73</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>0</v>
@@ -2075,39 +2135,66 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>ROCAFUERTE LOPEZ EVELYN ESTEFANIA</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>1015.74</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>VIEJO RIVAS MAYRA ANABELLE</t>
         </is>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="C18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4" t="n">
+      <c r="C18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4" t="n">
         <v>6606.64</v>
       </c>
-      <c r="E18" s="4" t="n">
+      <c r="E19" s="4" t="n">
         <v>17222.84</v>
       </c>
-      <c r="F18" s="4" t="n">
+      <c r="F19" s="4" t="n">
         <v>1793.34</v>
       </c>
-      <c r="G18" s="4" t="n">
+      <c r="G19" s="4" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>162.19</v>
+        <v>103.71</v>
       </c>
       <c r="N12" s="2" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>0</v>
+        <v>591.61</v>
       </c>
       <c r="M17" s="2" t="n">
         <v>0</v>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="L19" s="3" t="inlineStr">
         <is>
-          <t>0 de 17</t>
+          <t>1 de 17</t>
         </is>
       </c>
       <c r="M19" s="3" t="inlineStr">
@@ -2013,7 +2013,7 @@
         <v>58.48</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>162.19</v>
+        <v>103.71</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>0</v>
@@ -2148,7 +2148,7 @@
         <v>1015.74</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>0</v>
+        <v>591.61</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>0</v>
@@ -2192,7 +2192,7 @@
         <v>17222.84</v>
       </c>
       <c r="F19" s="4" t="n">
-        <v>1793.34</v>
+        <v>2326.47</v>
       </c>
       <c r="G19" s="4" t="n">
         <v>0</v>

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,7 +563,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ASES GAVILANEZ FAUSTO HERNAN</t>
+          <t>ARMIJOS SALINAS LUIS CLAUDIO</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -623,7 +623,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BARROS YUNGA DIEGO VINICIO</t>
+          <t>ASES GAVILANEZ FAUSTO HERNAN</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -683,7 +683,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRAVO MONTENEGRO DANIEL ANDRES</t>
+          <t>BARROS YUNGA DIEGO VINICIO</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -743,7 +743,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BRITO CARDENAS RUTH CECILIA</t>
+          <t>BRAVO MONTENEGRO DANIEL ANDRES</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -803,7 +803,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>COELLO TRONCOSO JOSE GREGORIO</t>
+          <t>BRITO CARDENAS RUTH CECILIA</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -863,7 +863,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>COMERCIAL LUNA PAZMIÑO CIA. LTDA.</t>
+          <t>COELLO TRONCOSO JOSE GREGORIO</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -923,7 +923,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CORPORACION AREVALO-YUMBLA E HIJOS</t>
+          <t>COMERCIAL LUNA PAZMIÑO CIA. LTDA.</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>1631.15</v>
+        <v>0</v>
       </c>
       <c r="N8" s="2" t="n">
         <v>0</v>
@@ -983,7 +983,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FABIMP BENIGNO BRAVO S.A.S.</t>
+          <t>CORPORACION AREVALO-YUMBLA E HIJOS</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>0</v>
+        <v>1631.15</v>
       </c>
       <c r="N9" s="2" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FRANK FERRETERIA FRANKFERRE CIA.</t>
+          <t>FABIMP BENIGNO BRAVO S.A.S.</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HUERTA MUÑOZ NANCY ELIZABETH</t>
+          <t>FRANK FERRETERIA FRANKFERRE CIA.</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+          <t>HUERTA MUÑOZ NANCY ELIZABETH</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>103.71</v>
+        <v>0</v>
       </c>
       <c r="N12" s="2" t="n">
         <v>0</v>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MIM CONSTRUFERRETERIA E IMPORTADORA SAS</t>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>0</v>
+        <v>103.71</v>
       </c>
       <c r="N13" s="2" t="n">
         <v>0</v>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MOROCHO BACUILIMA HILDA INES</t>
+          <t>MIM CONSTRUFERRETERIA E IMPORTADORA SAS</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MULLO GUACHO ANA LUCIA</t>
+          <t>MOROCHO BACUILIMA HILDA INES</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PAUTA ASTUDILLO JULIO HERNAN</t>
+          <t>MULLO GUACHO ANA LUCIA</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ROCAFUERTE LOPEZ EVELYN ESTEFANIA</t>
+          <t>PAUTA ASTUDILLO JULIO HERNAN</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>591.61</v>
+        <v>0</v>
       </c>
       <c r="M17" s="2" t="n">
         <v>0</v>
@@ -1523,137 +1523,197 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>ROCAFUERTE LOPEZ EVELYN ESTEFANIA</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2" t="n">
+        <v>591.61</v>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>VIEJO RIVAS MAYRA ANABELLE</t>
         </is>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>0 de 17</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>0 de 17</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="inlineStr">
-        <is>
-          <t>0 de 17</t>
-        </is>
-      </c>
-      <c r="F19" s="3" t="inlineStr">
-        <is>
-          <t>0 de 17</t>
-        </is>
-      </c>
-      <c r="G19" s="3" t="inlineStr">
-        <is>
-          <t>0 de 17</t>
-        </is>
-      </c>
-      <c r="H19" s="3" t="inlineStr">
-        <is>
-          <t>0 de 17</t>
-        </is>
-      </c>
-      <c r="I19" s="3" t="inlineStr">
-        <is>
-          <t>0 de 17</t>
-        </is>
-      </c>
-      <c r="J19" s="3" t="inlineStr">
-        <is>
-          <t>0 de 17</t>
-        </is>
-      </c>
-      <c r="K19" s="3" t="inlineStr">
-        <is>
-          <t>0 de 17</t>
-        </is>
-      </c>
-      <c r="L19" s="3" t="inlineStr">
-        <is>
-          <t>1 de 17</t>
-        </is>
-      </c>
-      <c r="M19" s="3" t="inlineStr">
-        <is>
-          <t>2 de 17</t>
-        </is>
-      </c>
-      <c r="N19" s="3" t="inlineStr">
-        <is>
-          <t>0 de 17</t>
-        </is>
-      </c>
-      <c r="O19" s="3" t="inlineStr">
-        <is>
-          <t>0 de 17</t>
-        </is>
-      </c>
-      <c r="P19" s="3" t="inlineStr">
-        <is>
-          <t>0 de 17</t>
-        </is>
-      </c>
-      <c r="Q19" s="3" t="inlineStr">
-        <is>
-          <t>0 de 17</t>
-        </is>
-      </c>
-      <c r="R19" s="3" t="inlineStr">
-        <is>
-          <t>0 de 17</t>
+      <c r="C19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>0 de 18</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>0 de 18</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>0 de 18</t>
+        </is>
+      </c>
+      <c r="F20" s="3" t="inlineStr">
+        <is>
+          <t>0 de 18</t>
+        </is>
+      </c>
+      <c r="G20" s="3" t="inlineStr">
+        <is>
+          <t>0 de 18</t>
+        </is>
+      </c>
+      <c r="H20" s="3" t="inlineStr">
+        <is>
+          <t>0 de 18</t>
+        </is>
+      </c>
+      <c r="I20" s="3" t="inlineStr">
+        <is>
+          <t>0 de 18</t>
+        </is>
+      </c>
+      <c r="J20" s="3" t="inlineStr">
+        <is>
+          <t>0 de 18</t>
+        </is>
+      </c>
+      <c r="K20" s="3" t="inlineStr">
+        <is>
+          <t>0 de 18</t>
+        </is>
+      </c>
+      <c r="L20" s="3" t="inlineStr">
+        <is>
+          <t>1 de 18</t>
+        </is>
+      </c>
+      <c r="M20" s="3" t="inlineStr">
+        <is>
+          <t>2 de 18</t>
+        </is>
+      </c>
+      <c r="N20" s="3" t="inlineStr">
+        <is>
+          <t>0 de 18</t>
+        </is>
+      </c>
+      <c r="O20" s="3" t="inlineStr">
+        <is>
+          <t>0 de 18</t>
+        </is>
+      </c>
+      <c r="P20" s="3" t="inlineStr">
+        <is>
+          <t>0 de 18</t>
+        </is>
+      </c>
+      <c r="Q20" s="3" t="inlineStr">
+        <is>
+          <t>0 de 18</t>
+        </is>
+      </c>
+      <c r="R20" s="3" t="inlineStr">
+        <is>
+          <t>0 de 18</t>
         </is>
       </c>
     </row>
@@ -1668,7 +1728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1730,7 +1790,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ASES GAVILANEZ FAUSTO HERNAN</t>
+          <t>ARMIJOS SALINAS LUIS CLAUDIO</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -1757,17 +1817,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BARROS YUNGA DIEGO VINICIO</t>
+          <t>ASES GAVILANEZ FAUSTO HERNAN</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>595.08</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>17.99</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>0</v>
@@ -1784,17 +1844,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRAVO MONTENEGRO DANIEL ANDRES</t>
+          <t>BARROS YUNGA DIEGO VINICIO</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0</v>
+        <v>595.08</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0</v>
+        <v>17.99</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>0</v>
@@ -1811,7 +1871,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BRITO CARDENAS RUTH CECILIA</t>
+          <t>BRAVO MONTENEGRO DANIEL ANDRES</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -1838,7 +1898,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>COELLO TRONCOSO JOSE GREGORIO</t>
+          <t>BRITO CARDENAS RUTH CECILIA</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -1865,7 +1925,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>COMERCIAL LUNA PAZMIÑO CIA. LTDA.</t>
+          <t>COELLO TRONCOSO JOSE GREGORIO</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -1892,7 +1952,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CORPORACION AREVALO-YUMBLA E HIJOS</t>
+          <t>COMERCIAL LUNA PAZMIÑO CIA. LTDA.</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -1902,10 +1962,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>3992.9</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1631.15</v>
+        <v>0</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>0</v>
@@ -1919,20 +1979,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FABIMP BENIGNO BRAVO S.A.S.</t>
+          <t>CORPORACION AREVALO-YUMBLA E HIJOS</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>400.46</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>252.25</v>
+        <v>3992.9</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>0</v>
+        <v>1631.15</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>0</v>
@@ -1946,17 +2006,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FRANK FERRETERIA FRANKFERRE CIA.</t>
+          <t>FABIMP BENIGNO BRAVO S.A.S.</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>5372.02</v>
+        <v>400.46</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>7662.57</v>
+        <v>252.25</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>0</v>
@@ -1973,17 +2033,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HUERTA MUÑOZ NANCY ELIZABETH</t>
+          <t>FRANK FERRETERIA FRANKFERRE CIA.</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0</v>
+        <v>5372.02</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0</v>
+        <v>7662.57</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>0</v>
@@ -2000,20 +2060,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+          <t>HUERTA MUÑOZ NANCY ELIZABETH</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>136.48</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>58.48</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>103.71</v>
+        <v>0</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>0</v>
@@ -2027,20 +2087,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MIM CONSTRUFERRETERIA E IMPORTADORA SAS</t>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0</v>
+        <v>136.48</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>3896.18</v>
+        <v>58.48</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>0</v>
+        <v>103.71</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>0</v>
@@ -2054,17 +2114,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MOROCHO BACUILIMA HILDA INES</t>
+          <t>MIM CONSTRUFERRETERIA E IMPORTADORA SAS</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>102.6</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0</v>
+        <v>3896.18</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>0</v>
@@ -2081,14 +2141,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MULLO GUACHO ANA LUCIA</t>
+          <t>MOROCHO BACUILIMA HILDA INES</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0</v>
+        <v>102.6</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>0</v>
@@ -2108,7 +2168,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PAUTA ASTUDILLO JULIO HERNAN</t>
+          <t>MULLO GUACHO ANA LUCIA</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -2118,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>326.73</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>0</v>
@@ -2135,7 +2195,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ROCAFUERTE LOPEZ EVELYN ESTEFANIA</t>
+          <t>PAUTA ASTUDILLO JULIO HERNAN</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -2145,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>1015.74</v>
+        <v>326.73</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>591.61</v>
+        <v>0</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>0</v>
@@ -2162,39 +2222,66 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>ROCAFUERTE LOPEZ EVELYN ESTEFANIA</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>1015.74</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>591.61</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>VIEJO RIVAS MAYRA ANABELLE</t>
         </is>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="C19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4" t="n">
+      <c r="C19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4" t="n">
         <v>6606.64</v>
       </c>
-      <c r="E19" s="4" t="n">
+      <c r="E20" s="4" t="n">
         <v>17222.84</v>
       </c>
-      <c r="F19" s="4" t="n">
+      <c r="F20" s="4" t="n">
         <v>2326.47</v>
       </c>
-      <c r="G19" s="4" t="n">
+      <c r="G20" s="4" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>0</v>
+        <v>797.36</v>
       </c>
       <c r="N2" s="2" t="n">
         <v>0</v>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="M20" s="3" t="inlineStr">
         <is>
-          <t>2 de 18</t>
+          <t>3 de 18</t>
         </is>
       </c>
       <c r="N20" s="3" t="inlineStr">
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>0</v>
+        <v>797.36</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>0</v>
@@ -2279,7 +2279,7 @@
         <v>17222.84</v>
       </c>
       <c r="F20" s="4" t="n">
-        <v>2326.47</v>
+        <v>3123.83</v>
       </c>
       <c r="G20" s="4" t="n">
         <v>0</v>

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>591.61</v>
+        <v>1218.02</v>
       </c>
       <c r="M18" s="2" t="n">
         <v>0</v>
@@ -2235,7 +2235,7 @@
         <v>1015.74</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>591.61</v>
+        <v>1218.02</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>0</v>
@@ -2279,7 +2279,7 @@
         <v>17222.84</v>
       </c>
       <c r="F20" s="4" t="n">
-        <v>3123.83</v>
+        <v>3750.24</v>
       </c>
       <c r="G20" s="4" t="n">
         <v>0</v>

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>797.36</v>
+        <v>0</v>
       </c>
       <c r="N2" s="2" t="n">
         <v>0</v>
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>1631.15</v>
+        <v>0</v>
       </c>
       <c r="N9" s="2" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>103.71</v>
+        <v>0</v>
       </c>
       <c r="N13" s="2" t="n">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1218.02</v>
+        <v>0</v>
       </c>
       <c r="M18" s="2" t="n">
         <v>0</v>
@@ -1683,12 +1683,12 @@
       </c>
       <c r="L20" s="3" t="inlineStr">
         <is>
-          <t>1 de 18</t>
+          <t>0 de 18</t>
         </is>
       </c>
       <c r="M20" s="3" t="inlineStr">
         <is>
-          <t>3 de 18</t>
+          <t>0 de 18</t>
         </is>
       </c>
       <c r="N20" s="3" t="inlineStr">
@@ -1738,9 +1738,9 @@
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
     <col width="41" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="16" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
@@ -1758,22 +1758,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>agosto</t>
+          <t>septiembre</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>septiembre</t>
+          <t>octubre</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>octubre</t>
+          <t>noviembre</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>noviembre</t>
+          <t>diciembre</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -1800,10 +1800,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0</v>
+        <v>797.36</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>797.36</v>
+        <v>0</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>0</v>
@@ -1848,13 +1848,13 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0</v>
+        <v>595.08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>595.08</v>
+        <v>17.99</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>17.99</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>0</v>
@@ -1986,13 +1986,13 @@
         <v>0</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0</v>
+        <v>3992.9</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>3992.9</v>
+        <v>1631.15</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1631.15</v>
+        <v>0</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>0</v>
@@ -2010,13 +2010,13 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>0</v>
+        <v>400.46</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>400.46</v>
+        <v>252.25</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>252.25</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>0</v>
@@ -2037,13 +2037,13 @@
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>0</v>
+        <v>5372.02</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>5372.02</v>
+        <v>7662.57</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>7662.57</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>0</v>
@@ -2091,16 +2091,16 @@
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>0</v>
+        <v>136.48</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>136.48</v>
+        <v>58.48</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>58.48</v>
+        <v>103.71</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>103.71</v>
+        <v>0</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>0</v>
@@ -2121,10 +2121,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0</v>
+        <v>3896.18</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>3896.18</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>0</v>
@@ -2145,10 +2145,10 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>0</v>
+        <v>102.6</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>102.6</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>0</v>
@@ -2202,10 +2202,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0</v>
+        <v>326.73</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>326.73</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>0</v>
@@ -2229,13 +2229,13 @@
         <v>0</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0</v>
+        <v>1015.74</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>1015.74</v>
+        <v>1218.02</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1218.02</v>
+        <v>0</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>0</v>
@@ -2270,16 +2270,16 @@
     </row>
     <row r="20">
       <c r="C20" s="4" t="n">
-        <v>0</v>
+        <v>6606.64</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>6606.64</v>
+        <v>17222.84</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>17222.84</v>
+        <v>3750.24</v>
       </c>
       <c r="F20" s="4" t="n">
-        <v>3750.24</v>
+        <v>0</v>
       </c>
       <c r="G20" s="4" t="n">
         <v>0</v>

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>0</v>
+        <v>-591.61</v>
       </c>
       <c r="M18" s="2" t="n">
         <v>0</v>
@@ -2235,7 +2235,7 @@
         <v>1218.02</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>0</v>
+        <v>-591.61</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>0</v>
@@ -2279,7 +2279,7 @@
         <v>3750.24</v>
       </c>
       <c r="F20" s="4" t="n">
-        <v>0</v>
+        <v>-591.61</v>
       </c>
       <c r="G20" s="4" t="n">
         <v>0</v>

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1583,137 +1583,197 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>SARMIENTO SARMIENTO SANDRA EULALIA</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>VIEJO RIVAS MAYRA ANABELLE</t>
         </is>
       </c>
-      <c r="C19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>0 de 18</t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="inlineStr">
-        <is>
-          <t>0 de 18</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="inlineStr">
-        <is>
-          <t>0 de 18</t>
-        </is>
-      </c>
-      <c r="F20" s="3" t="inlineStr">
-        <is>
-          <t>0 de 18</t>
-        </is>
-      </c>
-      <c r="G20" s="3" t="inlineStr">
-        <is>
-          <t>0 de 18</t>
-        </is>
-      </c>
-      <c r="H20" s="3" t="inlineStr">
-        <is>
-          <t>0 de 18</t>
-        </is>
-      </c>
-      <c r="I20" s="3" t="inlineStr">
-        <is>
-          <t>0 de 18</t>
-        </is>
-      </c>
-      <c r="J20" s="3" t="inlineStr">
-        <is>
-          <t>0 de 18</t>
-        </is>
-      </c>
-      <c r="K20" s="3" t="inlineStr">
-        <is>
-          <t>0 de 18</t>
-        </is>
-      </c>
-      <c r="L20" s="3" t="inlineStr">
-        <is>
-          <t>0 de 18</t>
-        </is>
-      </c>
-      <c r="M20" s="3" t="inlineStr">
-        <is>
-          <t>0 de 18</t>
-        </is>
-      </c>
-      <c r="N20" s="3" t="inlineStr">
-        <is>
-          <t>0 de 18</t>
-        </is>
-      </c>
-      <c r="O20" s="3" t="inlineStr">
-        <is>
-          <t>0 de 18</t>
-        </is>
-      </c>
-      <c r="P20" s="3" t="inlineStr">
-        <is>
-          <t>0 de 18</t>
-        </is>
-      </c>
-      <c r="Q20" s="3" t="inlineStr">
-        <is>
-          <t>0 de 18</t>
-        </is>
-      </c>
-      <c r="R20" s="3" t="inlineStr">
-        <is>
-          <t>0 de 18</t>
+      <c r="C20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>0 de 19</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>0 de 19</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>0 de 19</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>0 de 19</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>0 de 19</t>
+        </is>
+      </c>
+      <c r="H21" s="3" t="inlineStr">
+        <is>
+          <t>0 de 19</t>
+        </is>
+      </c>
+      <c r="I21" s="3" t="inlineStr">
+        <is>
+          <t>0 de 19</t>
+        </is>
+      </c>
+      <c r="J21" s="3" t="inlineStr">
+        <is>
+          <t>0 de 19</t>
+        </is>
+      </c>
+      <c r="K21" s="3" t="inlineStr">
+        <is>
+          <t>0 de 19</t>
+        </is>
+      </c>
+      <c r="L21" s="3" t="inlineStr">
+        <is>
+          <t>0 de 19</t>
+        </is>
+      </c>
+      <c r="M21" s="3" t="inlineStr">
+        <is>
+          <t>0 de 19</t>
+        </is>
+      </c>
+      <c r="N21" s="3" t="inlineStr">
+        <is>
+          <t>0 de 19</t>
+        </is>
+      </c>
+      <c r="O21" s="3" t="inlineStr">
+        <is>
+          <t>0 de 19</t>
+        </is>
+      </c>
+      <c r="P21" s="3" t="inlineStr">
+        <is>
+          <t>0 de 19</t>
+        </is>
+      </c>
+      <c r="Q21" s="3" t="inlineStr">
+        <is>
+          <t>0 de 19</t>
+        </is>
+      </c>
+      <c r="R21" s="3" t="inlineStr">
+        <is>
+          <t>0 de 19</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1788,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2249,39 +2309,66 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>SARMIENTO SARMIENTO SANDRA EULALIA</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>VIEJO RIVAS MAYRA ANABELLE</t>
         </is>
       </c>
-      <c r="C19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="C20" s="4" t="n">
+      <c r="C20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" s="4" t="n">
         <v>6606.64</v>
       </c>
-      <c r="D20" s="4" t="n">
+      <c r="D21" s="4" t="n">
         <v>17222.84</v>
       </c>
-      <c r="E20" s="4" t="n">
+      <c r="E21" s="4" t="n">
         <v>3750.24</v>
       </c>
-      <c r="F20" s="4" t="n">
+      <c r="F21" s="4" t="n">
         <v>-591.61</v>
       </c>
-      <c r="G20" s="4" t="n">
+      <c r="G21" s="4" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0</v>
+        <v>93.98999999999999</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>0</v>
@@ -1708,7 +1708,7 @@
       </c>
       <c r="E21" s="3" t="inlineStr">
         <is>
-          <t>0 de 19</t>
+          <t>1 de 19</t>
         </is>
       </c>
       <c r="F21" s="3" t="inlineStr">
@@ -2160,7 +2160,7 @@
         <v>103.71</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>0</v>
+        <v>93.98999999999999</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>3750.24</v>
       </c>
       <c r="F21" s="4" t="n">
-        <v>-591.61</v>
+        <v>-497.62</v>
       </c>
       <c r="G21" s="4" t="n">
         <v>0</v>

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -1788,7 +1788,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2282,23 +2282,23 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ROCAFUERTE LOPEZ EVELYN ESTEFANIA</t>
+          <t>PAUTA ASTUDILLO JULIO HERNAN</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>1015.74</v>
+        <v>326.73</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>1218.02</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-591.61</v>
+        <v>0</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2309,20 +2309,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SARMIENTO SARMIENTO SANDRA EULALIA</t>
+          <t>ROCAFUERTE LOPEZ EVELYN ESTEFANIA</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0</v>
+        <v>1015.74</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>0</v>
+        <v>1218.02</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>0</v>
+        <v>-591.61</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>0</v>
@@ -2336,40 +2336,67 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>SARMIENTO SARMIENTO SANDRA EULALIA</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>VIEJO RIVAS MAYRA ANABELLE</t>
         </is>
       </c>
-      <c r="C20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="C21" s="4" t="n">
+      <c r="C21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" s="4" t="n">
         <v>6606.64</v>
       </c>
-      <c r="D21" s="4" t="n">
-        <v>17222.84</v>
-      </c>
-      <c r="E21" s="4" t="n">
+      <c r="D22" s="4" t="n">
+        <v>17549.57</v>
+      </c>
+      <c r="E22" s="4" t="n">
         <v>3750.24</v>
       </c>
-      <c r="F21" s="4" t="n">
+      <c r="F22" s="4" t="n">
         <v>-497.62</v>
       </c>
-      <c r="G21" s="4" t="n">
-        <v>0</v>
+      <c r="G22" s="4" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -1788,7 +1788,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2282,23 +2282,23 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PAUTA ASTUDILLO JULIO HERNAN</t>
+          <t>ROCAFUERTE LOPEZ EVELYN ESTEFANIA</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>326.73</v>
+        <v>1015.74</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0</v>
+        <v>1218.02</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>0</v>
+        <v>-591.61</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2309,20 +2309,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ROCAFUERTE LOPEZ EVELYN ESTEFANIA</t>
+          <t>SARMIENTO SARMIENTO SANDRA EULALIA</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>1015.74</v>
+        <v>0</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>1218.02</v>
+        <v>0</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-591.61</v>
+        <v>0</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SARMIENTO SARMIENTO SANDRA EULALIA</t>
+          <t>VIEJO RIVAS MAYRA ANABELLE</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -2356,47 +2356,20 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>VIEJO RIVAS MAYRA ANABELLE</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="C22" s="4" t="n">
+      <c r="C21" s="4" t="n">
         <v>6606.64</v>
       </c>
-      <c r="D22" s="4" t="n">
-        <v>17549.57</v>
-      </c>
-      <c r="E22" s="4" t="n">
+      <c r="D21" s="4" t="n">
+        <v>17222.84</v>
+      </c>
+      <c r="E21" s="4" t="n">
         <v>3750.24</v>
       </c>
-      <c r="F22" s="4" t="n">
+      <c r="F21" s="4" t="n">
         <v>-497.62</v>
       </c>
-      <c r="G22" s="4" t="n">
-        <v>1000</v>
+      <c r="G21" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>0</v>
+        <v>643.6</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>0</v>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>0</v>
+        <v>2319.99</v>
       </c>
       <c r="N19" s="2" t="n">
         <v>0</v>
@@ -1708,47 +1708,47 @@
       </c>
       <c r="E21" s="3" t="inlineStr">
         <is>
+          <t>2 de 19</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>0 de 19</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>0 de 19</t>
+        </is>
+      </c>
+      <c r="H21" s="3" t="inlineStr">
+        <is>
+          <t>0 de 19</t>
+        </is>
+      </c>
+      <c r="I21" s="3" t="inlineStr">
+        <is>
+          <t>0 de 19</t>
+        </is>
+      </c>
+      <c r="J21" s="3" t="inlineStr">
+        <is>
+          <t>0 de 19</t>
+        </is>
+      </c>
+      <c r="K21" s="3" t="inlineStr">
+        <is>
+          <t>0 de 19</t>
+        </is>
+      </c>
+      <c r="L21" s="3" t="inlineStr">
+        <is>
+          <t>0 de 19</t>
+        </is>
+      </c>
+      <c r="M21" s="3" t="inlineStr">
+        <is>
           <t>1 de 19</t>
-        </is>
-      </c>
-      <c r="F21" s="3" t="inlineStr">
-        <is>
-          <t>0 de 19</t>
-        </is>
-      </c>
-      <c r="G21" s="3" t="inlineStr">
-        <is>
-          <t>0 de 19</t>
-        </is>
-      </c>
-      <c r="H21" s="3" t="inlineStr">
-        <is>
-          <t>0 de 19</t>
-        </is>
-      </c>
-      <c r="I21" s="3" t="inlineStr">
-        <is>
-          <t>0 de 19</t>
-        </is>
-      </c>
-      <c r="J21" s="3" t="inlineStr">
-        <is>
-          <t>0 de 19</t>
-        </is>
-      </c>
-      <c r="K21" s="3" t="inlineStr">
-        <is>
-          <t>0 de 19</t>
-        </is>
-      </c>
-      <c r="L21" s="3" t="inlineStr">
-        <is>
-          <t>0 de 19</t>
-        </is>
-      </c>
-      <c r="M21" s="3" t="inlineStr">
-        <is>
-          <t>0 de 19</t>
         </is>
       </c>
       <c r="N21" s="3" t="inlineStr">
@@ -2322,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>0</v>
+        <v>2963.59</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>3750.24</v>
       </c>
       <c r="F21" s="4" t="n">
-        <v>-497.62</v>
+        <v>2465.97</v>
       </c>
       <c r="G21" s="4" t="n">
         <v>0</v>

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0</v>
+        <v>84.59</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>0</v>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="J11" s="2" t="n">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>0</v>
+        <v>4610.35</v>
       </c>
       <c r="N11" s="2" t="n">
         <v>0</v>
@@ -1708,47 +1708,47 @@
       </c>
       <c r="E21" s="3" t="inlineStr">
         <is>
+          <t>3 de 19</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>0 de 19</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>0 de 19</t>
+        </is>
+      </c>
+      <c r="H21" s="3" t="inlineStr">
+        <is>
+          <t>0 de 19</t>
+        </is>
+      </c>
+      <c r="I21" s="3" t="inlineStr">
+        <is>
+          <t>1 de 19</t>
+        </is>
+      </c>
+      <c r="J21" s="3" t="inlineStr">
+        <is>
+          <t>0 de 19</t>
+        </is>
+      </c>
+      <c r="K21" s="3" t="inlineStr">
+        <is>
+          <t>0 de 19</t>
+        </is>
+      </c>
+      <c r="L21" s="3" t="inlineStr">
+        <is>
+          <t>0 de 19</t>
+        </is>
+      </c>
+      <c r="M21" s="3" t="inlineStr">
+        <is>
           <t>2 de 19</t>
-        </is>
-      </c>
-      <c r="F21" s="3" t="inlineStr">
-        <is>
-          <t>0 de 19</t>
-        </is>
-      </c>
-      <c r="G21" s="3" t="inlineStr">
-        <is>
-          <t>0 de 19</t>
-        </is>
-      </c>
-      <c r="H21" s="3" t="inlineStr">
-        <is>
-          <t>0 de 19</t>
-        </is>
-      </c>
-      <c r="I21" s="3" t="inlineStr">
-        <is>
-          <t>0 de 19</t>
-        </is>
-      </c>
-      <c r="J21" s="3" t="inlineStr">
-        <is>
-          <t>0 de 19</t>
-        </is>
-      </c>
-      <c r="K21" s="3" t="inlineStr">
-        <is>
-          <t>0 de 19</t>
-        </is>
-      </c>
-      <c r="L21" s="3" t="inlineStr">
-        <is>
-          <t>0 de 19</t>
-        </is>
-      </c>
-      <c r="M21" s="3" t="inlineStr">
-        <is>
-          <t>1 de 19</t>
         </is>
       </c>
       <c r="N21" s="3" t="inlineStr">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>0</v>
+        <v>4874.94</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>3750.24</v>
       </c>
       <c r="F21" s="4" t="n">
-        <v>2465.97</v>
+        <v>7340.91</v>
       </c>
       <c r="G21" s="4" t="n">
         <v>0</v>

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,7 +444,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="41" customWidth="1" min="2" max="2"/>
+    <col width="52" customWidth="1" min="2" max="2"/>
     <col width="25" customWidth="1" min="3" max="3"/>
     <col width="24" customWidth="1" min="4" max="4"/>
     <col width="26" customWidth="1" min="5" max="5"/>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FABIMP BENIGNO BRAVO S.A.S.</t>
+          <t>DISTRIBUIDORA VASQUEZ ORDOÑEZ DISTRIVASOR CIA LTDA</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FRANK FERRETERIA FRANKFERRE CIA.</t>
+          <t>FABIMP BENIGNO BRAVO S.A.S.</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>84.59</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>0</v>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="J11" s="2" t="n">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4610.35</v>
+        <v>0</v>
       </c>
       <c r="N11" s="2" t="n">
         <v>0</v>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>HUERTA MUÑOZ NANCY ELIZABETH</t>
+          <t>FRANK FERRETERIA FRANKFERRE CIA.</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+          <t>HUERTA MUÑOZ NANCY ELIZABETH</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>93.98999999999999</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>0</v>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MIM CONSTRUFERRETERIA E IMPORTADORA SAS</t>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MOROCHO BACUILIMA HILDA INES</t>
+          <t>MIM CONSTRUFERRETERIA E IMPORTADORA SAS</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MULLO GUACHO ANA LUCIA</t>
+          <t>MOROCHO BACUILIMA HILDA INES</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PAUTA ASTUDILLO JULIO HERNAN</t>
+          <t>MULLO GUACHO ANA LUCIA</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ROCAFUERTE LOPEZ EVELYN ESTEFANIA</t>
+          <t>PAUTA ASTUDILLO JULIO HERNAN</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>-591.61</v>
+        <v>0</v>
       </c>
       <c r="M18" s="2" t="n">
         <v>0</v>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SARMIENTO SARMIENTO SANDRA EULALIA</t>
+          <t>ROCAFUERTE LOPEZ EVELYN ESTEFANIA</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>643.6</v>
+        <v>0</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>0</v>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>2319.99</v>
+        <v>0</v>
       </c>
       <c r="N19" s="2" t="n">
         <v>0</v>
@@ -1643,137 +1643,257 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>SARMIENTO SARMIENTO SANDRA EULALIA</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>VALENCIA RUIZ FAUSTO GABRIEL</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>VIEJO RIVAS MAYRA ANABELLE</t>
         </is>
       </c>
-      <c r="C20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>0 de 19</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>0 de 19</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="inlineStr">
-        <is>
-          <t>3 de 19</t>
-        </is>
-      </c>
-      <c r="F21" s="3" t="inlineStr">
-        <is>
-          <t>0 de 19</t>
-        </is>
-      </c>
-      <c r="G21" s="3" t="inlineStr">
-        <is>
-          <t>0 de 19</t>
-        </is>
-      </c>
-      <c r="H21" s="3" t="inlineStr">
-        <is>
-          <t>0 de 19</t>
-        </is>
-      </c>
-      <c r="I21" s="3" t="inlineStr">
-        <is>
-          <t>1 de 19</t>
-        </is>
-      </c>
-      <c r="J21" s="3" t="inlineStr">
-        <is>
-          <t>0 de 19</t>
-        </is>
-      </c>
-      <c r="K21" s="3" t="inlineStr">
-        <is>
-          <t>0 de 19</t>
-        </is>
-      </c>
-      <c r="L21" s="3" t="inlineStr">
-        <is>
-          <t>0 de 19</t>
-        </is>
-      </c>
-      <c r="M21" s="3" t="inlineStr">
-        <is>
-          <t>2 de 19</t>
-        </is>
-      </c>
-      <c r="N21" s="3" t="inlineStr">
-        <is>
-          <t>0 de 19</t>
-        </is>
-      </c>
-      <c r="O21" s="3" t="inlineStr">
-        <is>
-          <t>0 de 19</t>
-        </is>
-      </c>
-      <c r="P21" s="3" t="inlineStr">
-        <is>
-          <t>0 de 19</t>
-        </is>
-      </c>
-      <c r="Q21" s="3" t="inlineStr">
-        <is>
-          <t>0 de 19</t>
-        </is>
-      </c>
-      <c r="R21" s="3" t="inlineStr">
-        <is>
-          <t>0 de 19</t>
+      <c r="C22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>0 de 21</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>0 de 21</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>0 de 21</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>0 de 21</t>
+        </is>
+      </c>
+      <c r="G23" s="3" t="inlineStr">
+        <is>
+          <t>0 de 21</t>
+        </is>
+      </c>
+      <c r="H23" s="3" t="inlineStr">
+        <is>
+          <t>0 de 21</t>
+        </is>
+      </c>
+      <c r="I23" s="3" t="inlineStr">
+        <is>
+          <t>0 de 21</t>
+        </is>
+      </c>
+      <c r="J23" s="3" t="inlineStr">
+        <is>
+          <t>0 de 21</t>
+        </is>
+      </c>
+      <c r="K23" s="3" t="inlineStr">
+        <is>
+          <t>0 de 21</t>
+        </is>
+      </c>
+      <c r="L23" s="3" t="inlineStr">
+        <is>
+          <t>0 de 21</t>
+        </is>
+      </c>
+      <c r="M23" s="3" t="inlineStr">
+        <is>
+          <t>0 de 21</t>
+        </is>
+      </c>
+      <c r="N23" s="3" t="inlineStr">
+        <is>
+          <t>0 de 21</t>
+        </is>
+      </c>
+      <c r="O23" s="3" t="inlineStr">
+        <is>
+          <t>0 de 21</t>
+        </is>
+      </c>
+      <c r="P23" s="3" t="inlineStr">
+        <is>
+          <t>0 de 21</t>
+        </is>
+      </c>
+      <c r="Q23" s="3" t="inlineStr">
+        <is>
+          <t>0 de 21</t>
+        </is>
+      </c>
+      <c r="R23" s="3" t="inlineStr">
+        <is>
+          <t>0 de 21</t>
         </is>
       </c>
     </row>
@@ -1788,7 +1908,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1797,11 +1917,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="41" customWidth="1" min="2" max="2"/>
-    <col width="16" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="52" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -1818,22 +1938,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>septiembre</t>
+          <t>octubre</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>octubre</t>
+          <t>noviembre</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>noviembre</t>
+          <t>diciembre</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>diciembre</t>
+          <t>enero</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -1857,10 +1977,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0</v>
+        <v>797.36</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>797.36</v>
+        <v>1347.49</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>0</v>
@@ -1908,10 +2028,10 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>595.08</v>
+        <v>17.99</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>17.99</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>0</v>
@@ -2043,13 +2163,13 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0</v>
+        <v>3992.9</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>3992.9</v>
+        <v>1631.15</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>1631.15</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>0</v>
@@ -2066,14 +2186,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FABIMP BENIGNO BRAVO S.A.S.</t>
+          <t>DISTRIBUIDORA VASQUEZ ORDOÑEZ DISTRIVASOR CIA LTDA</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>400.46</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>252.25</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>0</v>
@@ -2093,20 +2213,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FRANK FERRETERIA FRANKFERRE CIA.</t>
+          <t>FABIMP BENIGNO BRAVO S.A.S.</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>5372.02</v>
+        <v>252.25</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>7662.57</v>
+        <v>0</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>4874.94</v>
+        <v>0</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>0</v>
@@ -2120,17 +2240,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>HUERTA MUÑOZ NANCY ELIZABETH</t>
+          <t>FRANK FERRETERIA FRANKFERRE CIA.</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>0</v>
+        <v>7662.57</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0</v>
+        <v>4874.94</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>0</v>
@@ -2147,20 +2267,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+          <t>HUERTA MUÑOZ NANCY ELIZABETH</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>136.48</v>
+        <v>0</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>58.48</v>
+        <v>0</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>103.71</v>
+        <v>6342.22</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>93.98999999999999</v>
+        <v>0</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>0</v>
@@ -2174,17 +2294,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MIM CONSTRUFERRETERIA E IMPORTADORA SAS</t>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>0</v>
+        <v>58.48</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>3896.18</v>
+        <v>103.71</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0</v>
+        <v>93.98999999999999</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>0</v>
@@ -2201,11 +2321,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MOROCHO BACUILIMA HILDA INES</t>
+          <t>MIM CONSTRUFERRETERIA E IMPORTADORA SAS</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>102.6</v>
+        <v>3896.18</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>0</v>
@@ -2228,7 +2348,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MULLO GUACHO ANA LUCIA</t>
+          <t>MOROCHO BACUILIMA HILDA INES</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -2255,17 +2375,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PAUTA ASTUDILLO JULIO HERNAN</t>
+          <t>MULLO GUACHO ANA LUCIA</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>326.73</v>
+        <v>0</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0</v>
+        <v>838.7</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>0</v>
@@ -2282,20 +2402,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ROCAFUERTE LOPEZ EVELYN ESTEFANIA</t>
+          <t>PAUTA ASTUDILLO JULIO HERNAN</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>0</v>
+        <v>326.73</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>1015.74</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>1218.02</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-591.61</v>
+        <v>0</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>0</v>
@@ -2309,20 +2429,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SARMIENTO SARMIENTO SANDRA EULALIA</t>
+          <t>ROCAFUERTE LOPEZ EVELYN ESTEFANIA</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>0</v>
+        <v>1015.74</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0</v>
+        <v>1218.02</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>0</v>
+        <v>-591.61</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>2963.59</v>
+        <v>0</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>0</v>
@@ -2336,39 +2456,93 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>SARMIENTO SARMIENTO SANDRA EULALIA</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>2963.59</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>VALENCIA RUIZ FAUSTO GABRIEL</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>232.74</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>VIEJO RIVAS MAYRA ANABELLE</t>
         </is>
       </c>
-      <c r="C20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="C21" s="4" t="n">
-        <v>6606.64</v>
-      </c>
-      <c r="D21" s="4" t="n">
+      <c r="C22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" s="4" t="n">
         <v>17222.84</v>
       </c>
-      <c r="E21" s="4" t="n">
+      <c r="D23" s="4" t="n">
         <v>3750.24</v>
       </c>
-      <c r="F21" s="4" t="n">
-        <v>7340.91</v>
-      </c>
-      <c r="G21" s="4" t="n">
+      <c r="E23" s="4" t="n">
+        <v>16102.06</v>
+      </c>
+      <c r="F23" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1763,137 +1763,197 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>VERA CABRERA JORGE ENRIQUE</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>VIEJO RIVAS MAYRA ANABELLE</t>
         </is>
       </c>
-      <c r="C22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>0 de 21</t>
-        </is>
-      </c>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
-          <t>0 de 21</t>
-        </is>
-      </c>
-      <c r="E23" s="3" t="inlineStr">
-        <is>
-          <t>0 de 21</t>
-        </is>
-      </c>
-      <c r="F23" s="3" t="inlineStr">
-        <is>
-          <t>0 de 21</t>
-        </is>
-      </c>
-      <c r="G23" s="3" t="inlineStr">
-        <is>
-          <t>0 de 21</t>
-        </is>
-      </c>
-      <c r="H23" s="3" t="inlineStr">
-        <is>
-          <t>0 de 21</t>
-        </is>
-      </c>
-      <c r="I23" s="3" t="inlineStr">
-        <is>
-          <t>0 de 21</t>
-        </is>
-      </c>
-      <c r="J23" s="3" t="inlineStr">
-        <is>
-          <t>0 de 21</t>
-        </is>
-      </c>
-      <c r="K23" s="3" t="inlineStr">
-        <is>
-          <t>0 de 21</t>
-        </is>
-      </c>
-      <c r="L23" s="3" t="inlineStr">
-        <is>
-          <t>0 de 21</t>
-        </is>
-      </c>
-      <c r="M23" s="3" t="inlineStr">
-        <is>
-          <t>0 de 21</t>
-        </is>
-      </c>
-      <c r="N23" s="3" t="inlineStr">
-        <is>
-          <t>0 de 21</t>
-        </is>
-      </c>
-      <c r="O23" s="3" t="inlineStr">
-        <is>
-          <t>0 de 21</t>
-        </is>
-      </c>
-      <c r="P23" s="3" t="inlineStr">
-        <is>
-          <t>0 de 21</t>
-        </is>
-      </c>
-      <c r="Q23" s="3" t="inlineStr">
-        <is>
-          <t>0 de 21</t>
-        </is>
-      </c>
-      <c r="R23" s="3" t="inlineStr">
-        <is>
-          <t>0 de 21</t>
+      <c r="C23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>0 de 22</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>0 de 22</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>0 de 22</t>
+        </is>
+      </c>
+      <c r="F24" s="3" t="inlineStr">
+        <is>
+          <t>0 de 22</t>
+        </is>
+      </c>
+      <c r="G24" s="3" t="inlineStr">
+        <is>
+          <t>0 de 22</t>
+        </is>
+      </c>
+      <c r="H24" s="3" t="inlineStr">
+        <is>
+          <t>0 de 22</t>
+        </is>
+      </c>
+      <c r="I24" s="3" t="inlineStr">
+        <is>
+          <t>0 de 22</t>
+        </is>
+      </c>
+      <c r="J24" s="3" t="inlineStr">
+        <is>
+          <t>0 de 22</t>
+        </is>
+      </c>
+      <c r="K24" s="3" t="inlineStr">
+        <is>
+          <t>0 de 22</t>
+        </is>
+      </c>
+      <c r="L24" s="3" t="inlineStr">
+        <is>
+          <t>0 de 22</t>
+        </is>
+      </c>
+      <c r="M24" s="3" t="inlineStr">
+        <is>
+          <t>0 de 22</t>
+        </is>
+      </c>
+      <c r="N24" s="3" t="inlineStr">
+        <is>
+          <t>0 de 22</t>
+        </is>
+      </c>
+      <c r="O24" s="3" t="inlineStr">
+        <is>
+          <t>0 de 22</t>
+        </is>
+      </c>
+      <c r="P24" s="3" t="inlineStr">
+        <is>
+          <t>0 de 22</t>
+        </is>
+      </c>
+      <c r="Q24" s="3" t="inlineStr">
+        <is>
+          <t>0 de 22</t>
+        </is>
+      </c>
+      <c r="R24" s="3" t="inlineStr">
+        <is>
+          <t>0 de 22</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1968,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2510,40 +2570,67 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>VERA CABRERA JORGE ENRIQUE</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>1115.07</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>388.8</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ILLER LOPEZ ROBERTO FERNANDO</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>VIEJO RIVAS MAYRA ANABELLE</t>
         </is>
       </c>
-      <c r="C22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="C23" s="4" t="n">
-        <v>17222.84</v>
-      </c>
-      <c r="D23" s="4" t="n">
+      <c r="C23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" s="4" t="n">
+        <v>18337.91</v>
+      </c>
+      <c r="D24" s="4" t="n">
         <v>3750.24</v>
       </c>
-      <c r="E23" s="4" t="n">
-        <v>16102.06</v>
-      </c>
-      <c r="F23" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="4" t="n">
-        <v>0</v>
+      <c r="E24" s="4" t="n">
+        <v>16490.86</v>
+      </c>
+      <c r="F24" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\OneDrive - TRACTOMAQ S.A\Escritorio\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF4F552-35B9-4169-9B9A-70BB3E749BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A075FE1-B40E-4FA9-A102-2B3E930A19B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VENTAS POR GRUPO" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="77">
   <si>
     <t>ASESOR</t>
   </si>
@@ -252,37 +252,14 @@
   </si>
   <si>
     <t xml:space="preserve">ALATAMIRANO &amp; BURNEO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$2.300,00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$500,00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.500,00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.000,00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$800,00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$2.000,00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$2.410,00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.617,00 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;\-#,##0.00"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
@@ -334,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -343,6 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -649,7 +627,7 @@
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
@@ -671,7 +649,7 @@
     <col min="18" max="18" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -727,7 +705,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -783,7 +761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -839,7 +817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -895,7 +873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -951,7 +929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1007,7 +985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1063,7 +1041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1119,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1175,7 +1153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1231,7 +1209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1287,7 +1265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1343,7 +1321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1399,7 +1377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1455,7 +1433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1511,7 +1489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1567,7 +1545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1623,7 +1601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1679,7 +1657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1735,7 +1713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C20" s="3" t="s">
         <v>36</v>
       </c>
@@ -1795,10 +1773,10 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="G38" sqref="G2:G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
@@ -1808,7 +1786,7 @@
     <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1831,7 +1809,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1850,11 +1828,11 @@
       <c r="F2" s="2">
         <v>0</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="4">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1873,11 +1851,11 @@
       <c r="F3" s="2">
         <v>0</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1896,11 +1874,11 @@
       <c r="F4" s="2">
         <v>0</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1921,7 +1899,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1940,11 +1918,11 @@
       <c r="F6" s="2">
         <v>0</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1965,7 +1943,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1986,7 +1964,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -2005,11 +1983,11 @@
       <c r="F9" s="2">
         <v>0</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -2030,7 +2008,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2049,11 +2027,11 @@
       <c r="F11" s="2">
         <v>0</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2074,7 +2052,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -2095,7 +2073,7 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -2114,11 +2092,11 @@
       <c r="F14" s="2">
         <v>0</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -2137,11 +2115,11 @@
       <c r="F15" s="2">
         <v>0</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15" s="4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -2160,11 +2138,11 @@
       <c r="F16" s="2">
         <v>0</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G16" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -2185,7 +2163,7 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -2206,7 +2184,7 @@
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2227,7 +2205,7 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2246,11 +2224,11 @@
       <c r="F20" s="2">
         <v>0</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2269,11 +2247,11 @@
       <c r="F21" s="2">
         <v>0</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -2294,7 +2272,7 @@
       </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -2315,7 +2293,7 @@
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -2336,7 +2314,7 @@
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -2355,11 +2333,11 @@
       <c r="F25" s="2">
         <v>0</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -2380,7 +2358,7 @@
       </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -2399,11 +2377,11 @@
       <c r="F27" s="2">
         <v>0</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G27" s="4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -2424,7 +2402,7 @@
       </c>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -2445,7 +2423,7 @@
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -2466,7 +2444,7 @@
       </c>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -2485,11 +2463,11 @@
       <c r="F31" s="2">
         <v>0</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G31" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -2510,7 +2488,7 @@
       </c>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -2529,11 +2507,11 @@
       <c r="F33" s="2">
         <v>0</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G33" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -2552,11 +2530,11 @@
       <c r="F34" s="2">
         <v>0</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G34" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -2575,11 +2553,11 @@
       <c r="F35" s="2">
         <v>0</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G35" s="4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -2598,11 +2576,11 @@
       <c r="F36" s="2">
         <v>0</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G36" s="4">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -2621,11 +2599,11 @@
       <c r="F37" s="2">
         <v>0</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G37" s="4">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -2644,8 +2622,8 @@
       <c r="F38" s="2">
         <v>0</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>80</v>
+      <c r="G38" s="4">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
+++ b/data/ILLER LOPEZ ROBERTO FERNANDO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A075FE1-B40E-4FA9-A102-2B3E930A19B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4C55E9-3765-4200-A6B6-D4C0ECA34394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VENTAS POR GRUPO" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="74">
   <si>
     <t>ASESOR</t>
   </si>
@@ -134,18 +134,6 @@
     <t>0 de 18</t>
   </si>
   <si>
-    <t>septiembre</t>
-  </si>
-  <si>
-    <t>octubre</t>
-  </si>
-  <si>
-    <t>noviembre</t>
-  </si>
-  <si>
-    <t>diciembre</t>
-  </si>
-  <si>
     <t>PRESUPUESTO</t>
   </si>
   <si>
@@ -252,6 +240,9 @@
   </si>
   <si>
     <t xml:space="preserve">ALATAMIRANO &amp; BURNEO </t>
+  </si>
+  <si>
+    <t>enero</t>
   </si>
 </sst>
 </file>
@@ -625,7 +616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1770,23 +1761,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G38" sqref="G2:G38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1794,68 +1783,41 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
       <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="D3" s="4">
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1865,20 +1827,11 @@
       <c r="C4" s="2">
         <v>0</v>
       </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="D4" s="4">
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1888,741 +1841,435 @@
       <c r="C5" s="2">
         <v>0</v>
       </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
       <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
         <v>1500</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4">
         <v>1500</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
+      <c r="D31" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+      <c r="D34" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
+      <c r="D35" s="4">
         <v>1500</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0</v>
-      </c>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0</v>
-      </c>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0</v>
-      </c>
-      <c r="G25" s="4">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0</v>
-      </c>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0</v>
-      </c>
-      <c r="G27" s="4">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0</v>
-      </c>
-      <c r="F28" s="2">
-        <v>0</v>
-      </c>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0</v>
-      </c>
-      <c r="D29" s="2">
-        <v>0</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0</v>
-      </c>
-      <c r="F29" s="2">
-        <v>0</v>
-      </c>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0</v>
-      </c>
-      <c r="F30" s="2">
-        <v>0</v>
-      </c>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0</v>
-      </c>
-      <c r="D31" s="2">
-        <v>0</v>
-      </c>
-      <c r="E31" s="2">
-        <v>0</v>
-      </c>
-      <c r="F31" s="2">
-        <v>0</v>
-      </c>
-      <c r="G31" s="4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="2">
-        <v>0</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0</v>
-      </c>
-      <c r="F32" s="2">
-        <v>0</v>
-      </c>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="C36" s="2">
+        <v>0</v>
+      </c>
+      <c r="D36" s="4">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="2">
-        <v>0</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0</v>
-      </c>
-      <c r="F33" s="2">
-        <v>0</v>
-      </c>
-      <c r="G33" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="C37" s="2">
+        <v>0</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="2">
-        <v>0</v>
-      </c>
-      <c r="D34" s="2">
-        <v>0</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0</v>
-      </c>
-      <c r="F34" s="2">
-        <v>0</v>
-      </c>
-      <c r="G34" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="2">
-        <v>0</v>
-      </c>
-      <c r="D35" s="2">
-        <v>0</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0</v>
-      </c>
-      <c r="F35" s="2">
-        <v>0</v>
-      </c>
-      <c r="G35" s="4">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="2">
-        <v>0</v>
-      </c>
-      <c r="D36" s="2">
-        <v>0</v>
-      </c>
-      <c r="E36" s="2">
-        <v>0</v>
-      </c>
-      <c r="F36" s="2">
-        <v>0</v>
-      </c>
-      <c r="G36" s="4">
-        <v>2410</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="2">
-        <v>0</v>
-      </c>
-      <c r="D37" s="2">
-        <v>0</v>
-      </c>
-      <c r="E37" s="2">
-        <v>0</v>
-      </c>
-      <c r="F37" s="2">
-        <v>0</v>
-      </c>
-      <c r="G37" s="4">
-        <v>1617</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" t="s">
-        <v>76</v>
-      </c>
       <c r="C38" s="2">
         <v>0</v>
       </c>
-      <c r="D38" s="2">
-        <v>0</v>
-      </c>
-      <c r="E38" s="2">
-        <v>0</v>
-      </c>
-      <c r="F38" s="2">
-        <v>0</v>
-      </c>
-      <c r="G38" s="4">
+      <c r="D38" s="4">
         <v>1000</v>
       </c>
     </row>
